--- a/src/player_simulation.xlsx
+++ b/src/player_simulation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rossritchie/code/fantasy_trade_calculator/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82F303E-B2D4-0547-81BA-0866C0249D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33441D43-83C6-EE46-A927-810B8DEF3EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35320" yWindow="2020" windowWidth="29980" windowHeight="18340" xr2:uid="{B4242749-2F31-BC4D-9D1D-C0882BBF0A2E}"/>
+    <workbookView xWindow="31380" yWindow="2020" windowWidth="33920" windowHeight="18340" xr2:uid="{B4242749-2F31-BC4D-9D1D-C0882BBF0A2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>Player</t>
   </si>
@@ -143,7 +143,7 @@
     <t>Age</t>
   </si>
   <si>
-    <t>I. Papalii</t>
+    <t>J. Ofahengaue</t>
   </si>
 </sst>
 </file>
@@ -154,7 +154,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -308,6 +308,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="35">
@@ -665,18 +671,30 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="43"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1060,2031 +1078,2099 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
+      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="6" width="10.83203125" customWidth="1"/>
-    <col min="13" max="34" width="10.83203125" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="27" width="10.83203125" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="15.1640625" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="34" width="10.83203125" customWidth="1" outlineLevel="1"/>
     <col min="36" max="38" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:38" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+    <row r="2" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>23</v>
       </c>
-      <c r="E2" s="10">
-        <v>575000</v>
-      </c>
-      <c r="F2" s="9">
+      <c r="E2" s="8">
+        <v>488000</v>
+      </c>
+      <c r="F2" s="7">
         <f>E2/13700</f>
-        <v>41.970802919708028</v>
-      </c>
-      <c r="G2" s="6">
-        <v>55</v>
-      </c>
-      <c r="H2" s="8">
-        <v>61</v>
-      </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="6">
-        <v>0</v>
-      </c>
-      <c r="L2" s="6">
-        <v>0</v>
-      </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>0</v>
-      </c>
-      <c r="R2" s="6">
-        <v>29</v>
-      </c>
-      <c r="S2" s="6">
+        <v>35.620437956204377</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4">
+        <v>60</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0</v>
+      </c>
+      <c r="R2" s="4">
+        <v>42</v>
+      </c>
+      <c r="S2" s="4">
         <v>4</v>
       </c>
-      <c r="T2" s="6">
-        <v>0</v>
-      </c>
-      <c r="U2" s="6">
+      <c r="T2" s="4">
+        <v>0</v>
+      </c>
+      <c r="U2" s="4">
         <v>2</v>
       </c>
-      <c r="V2" s="6">
-        <v>0</v>
-      </c>
-      <c r="W2" s="6">
+      <c r="V2" s="4">
+        <v>4</v>
+      </c>
+      <c r="W2" s="4">
+        <v>0</v>
+      </c>
+      <c r="X2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z2" s="14">
+        <v>12</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="4">
         <v>-6</v>
       </c>
-      <c r="X2" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="6">
-        <v>4</v>
-      </c>
-      <c r="Z2" s="6">
-        <v>13.9</v>
-      </c>
-      <c r="AA2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="6">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="6">
+      <c r="AD2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF2">
         <v>0</v>
       </c>
       <c r="AJ2" s="2">
-        <f>SUM(R2:W2,Z2:AB2,AF2)</f>
-        <v>43.9</v>
+        <f>SUM(R2:V2,Y2:AA2,AE2)</f>
+        <v>68</v>
       </c>
       <c r="AL2" s="2">
         <f>AJ2-F2</f>
-        <v>1.9291970802919707</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+        <v>32.379562043795623</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>23</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="10">
-        <v>600000</v>
-      </c>
-      <c r="F3" s="9">
+      <c r="D3" s="5"/>
+      <c r="E3" s="8">
+        <v>517000</v>
+      </c>
+      <c r="F3" s="7">
         <f t="shared" ref="F3:F23" si="0">E3/13700</f>
-        <v>43.795620437956202</v>
-      </c>
-      <c r="H3" s="6">
-        <v>51</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6">
-        <v>0</v>
-      </c>
-      <c r="K3" s="6">
-        <v>0</v>
-      </c>
-      <c r="L3" s="6">
-        <v>0</v>
-      </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>0</v>
-      </c>
-      <c r="R3" s="6">
-        <v>36</v>
-      </c>
-      <c r="S3" s="6">
-        <v>8</v>
-      </c>
-      <c r="T3" s="6">
-        <v>0</v>
-      </c>
-      <c r="U3" s="6">
-        <v>0</v>
-      </c>
-      <c r="V3" s="6">
-        <v>0</v>
-      </c>
-      <c r="W3" s="6">
-        <v>0</v>
-      </c>
-      <c r="X3" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="6">
-        <v>16.5</v>
-      </c>
-      <c r="AA3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="2"/>
+        <v>37.737226277372265</v>
+      </c>
+      <c r="H3" s="4">
+        <v>40</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0</v>
+      </c>
+      <c r="R3" s="4">
+        <v>30</v>
+      </c>
+      <c r="S3" s="4">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4">
+        <v>-2</v>
+      </c>
+      <c r="U3" s="4">
+        <v>0</v>
+      </c>
+      <c r="V3" s="4">
+        <v>0</v>
+      </c>
+      <c r="W3" s="4">
+        <v>-2</v>
+      </c>
+      <c r="X3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="14">
+        <v>14.3</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="2"/>
       <c r="AJ3" s="2">
-        <f t="shared" ref="AJ3:AJ22" si="1">SUM(R3:W3,Z3:AB3,AF3)</f>
-        <v>60.5</v>
+        <f>SUM(R3:V3,Y3:AA3,AE3)</f>
+        <v>42.3</v>
       </c>
       <c r="AK3"/>
       <c r="AL3" s="2">
-        <f t="shared" ref="AL3:AL22" si="2">AJ3-F3</f>
-        <v>16.704379562043798</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+        <f>AJ3-F3</f>
+        <v>4.5627737226277318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <f>A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>23</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="10">
-        <v>643000</v>
-      </c>
-      <c r="F4" s="9">
+      <c r="D4" s="5"/>
+      <c r="E4" s="8">
+        <v>539000</v>
+      </c>
+      <c r="F4" s="7">
         <f t="shared" si="0"/>
-        <v>46.934306569343065</v>
-      </c>
-      <c r="H4" s="6">
-        <v>76</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0</v>
-      </c>
-      <c r="K4" s="6">
-        <v>0</v>
-      </c>
-      <c r="L4" s="6">
-        <v>0</v>
-      </c>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="6">
+        <v>39.34306569343066</v>
+      </c>
+      <c r="H4" s="4">
+        <v>50</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4">
         <v>1</v>
       </c>
-      <c r="R4" s="6">
-        <v>42</v>
-      </c>
-      <c r="S4" s="6">
-        <v>12</v>
-      </c>
-      <c r="T4" s="6">
+      <c r="R4" s="4">
+        <v>33</v>
+      </c>
+      <c r="S4" s="4">
+        <v>6</v>
+      </c>
+      <c r="T4" s="4">
+        <v>-10</v>
+      </c>
+      <c r="U4" s="4">
+        <v>4</v>
+      </c>
+      <c r="V4" s="4">
+        <v>8</v>
+      </c>
+      <c r="W4" s="4">
         <v>-2</v>
       </c>
-      <c r="U4" s="6">
-        <v>2</v>
-      </c>
-      <c r="V4" s="6">
-        <v>0</v>
-      </c>
-      <c r="W4" s="6">
-        <v>0</v>
-      </c>
-      <c r="X4" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="6">
-        <v>14.100000000000001</v>
-      </c>
-      <c r="AA4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="2"/>
+      <c r="X4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="14">
+        <v>15.600000000000001</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="2"/>
       <c r="AJ4" s="2">
-        <f t="shared" si="1"/>
-        <v>68.099999999999994</v>
+        <f>SUM(R4:V4,Y4:AA4,AE4)</f>
+        <v>56.6</v>
       </c>
       <c r="AK4"/>
       <c r="AL4" s="2">
-        <f t="shared" si="2"/>
-        <v>21.16569343065693</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <f t="shared" ref="A5:A22" si="3">A4+1</f>
+        <f>AJ4-F4</f>
+        <v>17.256934306569342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <f t="shared" ref="A5:A23" si="1">A4+1</f>
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>23</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="10">
+      <c r="D5" s="5"/>
+      <c r="E5" s="8">
+        <v>565000</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" si="0"/>
+        <v>41.240875912408761</v>
+      </c>
+      <c r="H5" s="4">
+        <v>48</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>1</v>
+      </c>
+      <c r="R5" s="4">
+        <v>34</v>
+      </c>
+      <c r="S5" s="4">
+        <v>4</v>
+      </c>
+      <c r="T5" s="4">
+        <v>-4</v>
+      </c>
+      <c r="U5" s="4">
+        <v>2</v>
+      </c>
+      <c r="V5" s="4">
+        <v>4</v>
+      </c>
+      <c r="W5" s="4">
+        <v>0</v>
+      </c>
+      <c r="X5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z5" s="14">
+        <v>11.700000000000001</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>-2</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="2"/>
+      <c r="AJ5" s="2">
+        <f>SUM(R5:V5,Y5:AA5,AE5)</f>
+        <v>55.7</v>
+      </c>
+      <c r="AK5"/>
+      <c r="AL5" s="2">
+        <f>AJ5-F5</f>
+        <v>14.459124087591242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="4">
+        <v>23</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="8">
+        <v>586000</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="0"/>
+        <v>42.773722627737229</v>
+      </c>
+      <c r="H6" s="4">
+        <v>59</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>2</v>
+      </c>
+      <c r="R6" s="4">
+        <v>41</v>
+      </c>
+      <c r="S6" s="4">
+        <v>4</v>
+      </c>
+      <c r="T6" s="4">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4">
+        <v>0</v>
+      </c>
+      <c r="V6" s="4">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4">
+        <v>0</v>
+      </c>
+      <c r="X6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z6" s="14">
+        <v>10.700000000000001</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="2"/>
+      <c r="AJ6" s="2">
+        <f>SUM(R6:V6,Y6:AA6,AE6)</f>
+        <v>59.7</v>
+      </c>
+      <c r="AK6"/>
+      <c r="AL6" s="2">
+        <f>AJ6-F6</f>
+        <v>16.926277372262774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="4">
+        <v>23</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="8">
+        <v>617000</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="0"/>
+        <v>45.036496350364963</v>
+      </c>
+      <c r="H7" s="4">
+        <v>50</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>1</v>
+      </c>
+      <c r="R7" s="4">
+        <v>30</v>
+      </c>
+      <c r="S7" s="4">
+        <v>6</v>
+      </c>
+      <c r="T7" s="4">
+        <v>-4</v>
+      </c>
+      <c r="U7" s="4">
+        <v>2</v>
+      </c>
+      <c r="V7" s="4">
+        <v>4</v>
+      </c>
+      <c r="W7" s="4">
+        <v>0</v>
+      </c>
+      <c r="X7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="14">
+        <v>12.3</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="2"/>
+      <c r="AJ7" s="2">
+        <f>SUM(R7:V7,Y7:AA7,AE7)</f>
+        <v>50.3</v>
+      </c>
+      <c r="AK7"/>
+      <c r="AL7" s="2">
+        <f>AJ7-F7</f>
+        <v>5.2635036496350338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="4">
+        <v>23</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="8">
+        <v>640000</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="0"/>
+        <v>46.715328467153284</v>
+      </c>
+      <c r="H8" s="4">
+        <v>77</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>1</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0</v>
+      </c>
+      <c r="R8" s="4">
+        <v>39</v>
+      </c>
+      <c r="S8" s="4">
+        <v>12</v>
+      </c>
+      <c r="T8" s="4">
+        <v>-4</v>
+      </c>
+      <c r="U8" s="4">
+        <v>6</v>
+      </c>
+      <c r="V8" s="4">
+        <v>8</v>
+      </c>
+      <c r="W8" s="4">
+        <v>0</v>
+      </c>
+      <c r="X8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="14">
+        <v>10.200000000000001</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>-2</v>
+      </c>
+      <c r="AD8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="2"/>
+      <c r="AJ8" s="2">
+        <f>SUM(R8:V8,Y8:AA8,AE8)</f>
+        <v>71.2</v>
+      </c>
+      <c r="AK8"/>
+      <c r="AL8" s="2">
+        <f>AJ8-F8</f>
+        <v>24.484671532846718</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="4">
+        <v>23</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="8">
+        <v>688000</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="0"/>
+        <v>50.21897810218978</v>
+      </c>
+      <c r="H9" s="4">
+        <v>36</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4">
+        <v>29</v>
+      </c>
+      <c r="S9" s="4">
+        <v>4</v>
+      </c>
+      <c r="T9" s="4">
+        <v>-4</v>
+      </c>
+      <c r="U9" s="4">
+        <v>2</v>
+      </c>
+      <c r="V9" s="4">
+        <v>0</v>
+      </c>
+      <c r="W9" s="4">
+        <v>0</v>
+      </c>
+      <c r="X9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="14">
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="2"/>
+      <c r="AJ9" s="2">
+        <f>SUM(R9:V9,Y9:AA9,AE9)</f>
+        <v>36.6</v>
+      </c>
+      <c r="AK9"/>
+      <c r="AL9" s="2">
+        <f>AJ9-F9</f>
+        <v>-13.618978102189779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="4">
+        <v>23</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="8">
+        <v>701000</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="0"/>
+        <v>51.167883211678834</v>
+      </c>
+      <c r="H10" s="4">
+        <v>60</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0</v>
+      </c>
+      <c r="R10" s="4">
+        <v>29</v>
+      </c>
+      <c r="S10" s="4">
+        <v>4</v>
+      </c>
+      <c r="T10" s="4">
+        <v>-4</v>
+      </c>
+      <c r="U10" s="4">
+        <v>4</v>
+      </c>
+      <c r="V10" s="4">
+        <v>8</v>
+      </c>
+      <c r="W10" s="4">
+        <v>0</v>
+      </c>
+      <c r="X10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="14">
+        <v>16</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="2"/>
+      <c r="AJ10" s="2">
+        <f>SUM(R10:V10,Y10:AA10,AE10)</f>
+        <v>57</v>
+      </c>
+      <c r="AK10"/>
+      <c r="AL10" s="2">
+        <f>AJ10-F10</f>
+        <v>5.8321167883211658</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="4">
+        <v>23</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="8">
+        <v>713000</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="0"/>
+        <v>52.043795620437955</v>
+      </c>
+      <c r="H11" s="4">
+        <v>42</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <v>1</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0</v>
+      </c>
+      <c r="R11" s="4">
+        <v>49</v>
+      </c>
+      <c r="S11" s="4">
+        <v>0</v>
+      </c>
+      <c r="T11" s="4">
+        <v>-14</v>
+      </c>
+      <c r="U11" s="4">
+        <v>0</v>
+      </c>
+      <c r="V11" s="4">
+        <v>0</v>
+      </c>
+      <c r="W11" s="4">
+        <v>0</v>
+      </c>
+      <c r="X11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="14">
+        <v>10</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="4">
+        <v>-2</v>
+      </c>
+      <c r="AD11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="2"/>
+      <c r="AJ11" s="2">
+        <f>SUM(R11:V11,Y11:AA11,AE11)</f>
+        <v>45</v>
+      </c>
+      <c r="AK11"/>
+      <c r="AL11" s="2">
+        <f>AJ11-F11</f>
+        <v>-7.0437956204379546</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="4">
+        <v>23</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="8">
         <v>705000</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F12" s="7">
         <f t="shared" si="0"/>
         <v>51.459854014598541</v>
       </c>
-      <c r="H5" s="6">
-        <v>88</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0</v>
-      </c>
-      <c r="K5" s="6">
-        <v>0</v>
-      </c>
-      <c r="L5" s="6">
-        <v>0</v>
-      </c>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6">
+      <c r="H12" s="4">
+        <v>56</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4">
         <v>1</v>
       </c>
-      <c r="Q5" s="6">
-        <v>1</v>
-      </c>
-      <c r="R5" s="6">
-        <v>36</v>
-      </c>
-      <c r="S5" s="6">
+      <c r="R12" s="4">
+        <v>35</v>
+      </c>
+      <c r="S12" s="4">
         <v>10</v>
       </c>
-      <c r="T5" s="6">
-        <v>-4</v>
-      </c>
-      <c r="U5" s="6">
+      <c r="T12" s="4">
+        <v>-2</v>
+      </c>
+      <c r="U12" s="4">
         <v>2</v>
       </c>
-      <c r="V5" s="6">
-        <v>0</v>
-      </c>
-      <c r="W5" s="6">
-        <v>0</v>
-      </c>
-      <c r="X5" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="6">
-        <v>15.600000000000001</v>
-      </c>
-      <c r="AA5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2">
-        <f t="shared" si="1"/>
-        <v>59.6</v>
-      </c>
-      <c r="AK5"/>
-      <c r="AL5" s="2">
-        <f t="shared" si="2"/>
-        <v>8.1401459854014604</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="6">
-        <v>23</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="10">
-        <v>773000</v>
-      </c>
-      <c r="F6" s="9">
-        <f t="shared" si="0"/>
-        <v>56.423357664233578</v>
-      </c>
-      <c r="H6" s="6">
-        <v>88</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0</v>
-      </c>
-      <c r="L6" s="6">
-        <v>0</v>
-      </c>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>2</v>
-      </c>
-      <c r="R6" s="6">
-        <v>22</v>
-      </c>
-      <c r="S6" s="6">
-        <v>10</v>
-      </c>
-      <c r="T6" s="6">
-        <v>-6</v>
-      </c>
-      <c r="U6" s="6">
-        <v>0</v>
-      </c>
-      <c r="V6" s="6">
-        <v>0</v>
-      </c>
-      <c r="W6" s="6">
-        <v>0</v>
-      </c>
-      <c r="X6" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="6">
+      <c r="V12" s="4">
         <v>4</v>
       </c>
-      <c r="Z6" s="6">
-        <v>15.100000000000001</v>
-      </c>
-      <c r="AA6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2">
-        <f t="shared" si="1"/>
-        <v>41.1</v>
-      </c>
-      <c r="AK6"/>
-      <c r="AL6" s="2">
-        <f t="shared" si="2"/>
-        <v>-15.323357664233576</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="6">
-        <v>23</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="10">
-        <v>813000</v>
-      </c>
-      <c r="F7" s="9">
-        <f t="shared" si="0"/>
-        <v>59.34306569343066</v>
-      </c>
-      <c r="H7" s="6">
-        <v>62</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0</v>
-      </c>
-      <c r="K7" s="6">
-        <v>0</v>
-      </c>
-      <c r="L7" s="6">
-        <v>0</v>
-      </c>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>1</v>
-      </c>
-      <c r="R7" s="6">
-        <v>42</v>
-      </c>
-      <c r="S7" s="6">
-        <v>8</v>
-      </c>
-      <c r="T7" s="6">
-        <v>-6</v>
-      </c>
-      <c r="U7" s="6">
-        <v>6</v>
-      </c>
-      <c r="V7" s="6">
-        <v>0</v>
-      </c>
-      <c r="W7" s="6">
-        <v>0</v>
-      </c>
-      <c r="X7" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="6">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="AA7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="6">
+      <c r="W12" s="4">
         <v>-2</v>
       </c>
-      <c r="AD7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="2"/>
-      <c r="AJ7" s="2">
-        <f t="shared" si="1"/>
-        <v>69.599999999999994</v>
-      </c>
-      <c r="AK7"/>
-      <c r="AL7" s="2">
-        <f t="shared" si="2"/>
-        <v>10.256934306569335</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="6">
-        <v>23</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="10">
-        <v>850000</v>
-      </c>
-      <c r="F8" s="9">
-        <f t="shared" si="0"/>
-        <v>62.043795620437955</v>
-      </c>
-      <c r="H8" s="6">
-        <v>80</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0</v>
-      </c>
-      <c r="L8" s="6">
-        <v>1</v>
-      </c>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="6">
-        <v>0</v>
-      </c>
-      <c r="R8" s="6">
-        <v>28</v>
-      </c>
-      <c r="S8" s="6">
-        <v>14</v>
-      </c>
-      <c r="T8" s="6">
-        <v>-12</v>
-      </c>
-      <c r="U8" s="6">
-        <v>6</v>
-      </c>
-      <c r="V8" s="6">
-        <v>0</v>
-      </c>
-      <c r="W8" s="6">
+      <c r="X12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="14">
+        <v>14.100000000000001</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="4">
         <v>-2</v>
       </c>
-      <c r="X8" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="6">
-        <v>17.5</v>
-      </c>
-      <c r="AA8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="6">
-        <v>-2</v>
-      </c>
-      <c r="AD8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="2"/>
-      <c r="AJ8" s="2">
-        <f t="shared" si="1"/>
-        <v>51.5</v>
-      </c>
-      <c r="AK8"/>
-      <c r="AL8" s="2">
-        <f t="shared" si="2"/>
-        <v>-10.543795620437955</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="6">
-        <v>23</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="10">
-        <v>855000</v>
-      </c>
-      <c r="F9" s="9">
-        <f t="shared" si="0"/>
-        <v>62.408759124087588</v>
-      </c>
-      <c r="H9" s="6">
-        <v>56</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0</v>
-      </c>
-      <c r="K9" s="6">
-        <v>0</v>
-      </c>
-      <c r="L9" s="6">
-        <v>0</v>
-      </c>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="6">
-        <v>0</v>
-      </c>
-      <c r="R9" s="6">
-        <v>20</v>
-      </c>
-      <c r="S9" s="6">
-        <v>4</v>
-      </c>
-      <c r="T9" s="6">
-        <v>-4</v>
-      </c>
-      <c r="U9" s="6">
-        <v>0</v>
-      </c>
-      <c r="V9" s="6">
-        <v>0</v>
-      </c>
-      <c r="W9" s="6">
-        <v>0</v>
-      </c>
-      <c r="X9" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="6">
-        <v>15.3</v>
-      </c>
-      <c r="AA9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="2"/>
-      <c r="AJ9" s="2">
-        <f t="shared" si="1"/>
-        <v>35.299999999999997</v>
-      </c>
-      <c r="AK9"/>
-      <c r="AL9" s="2">
-        <f t="shared" si="2"/>
-        <v>-27.108759124087591</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="6">
-        <v>23</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="10">
-        <v>820000</v>
-      </c>
-      <c r="F10" s="9">
-        <f t="shared" si="0"/>
-        <v>59.854014598540147</v>
-      </c>
-      <c r="H10" s="6">
-        <v>37</v>
-      </c>
-      <c r="I10" s="6">
-        <v>0</v>
-      </c>
-      <c r="J10" s="6">
-        <v>0</v>
-      </c>
-      <c r="K10" s="6">
-        <v>0</v>
-      </c>
-      <c r="L10" s="6">
-        <v>0</v>
-      </c>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="6">
-        <v>0</v>
-      </c>
-      <c r="R10" s="6">
-        <v>27</v>
-      </c>
-      <c r="S10" s="6">
-        <v>6</v>
-      </c>
-      <c r="T10" s="6">
-        <v>-4</v>
-      </c>
-      <c r="U10" s="6">
-        <v>8</v>
-      </c>
-      <c r="V10" s="6">
-        <v>0</v>
-      </c>
-      <c r="W10" s="6">
-        <v>-2</v>
-      </c>
-      <c r="X10" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="6">
-        <v>15.100000000000001</v>
-      </c>
-      <c r="AA10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="2"/>
-      <c r="AJ10" s="2">
-        <f t="shared" si="1"/>
-        <v>50.1</v>
-      </c>
-      <c r="AK10"/>
-      <c r="AL10" s="2">
-        <f t="shared" si="2"/>
-        <v>-9.7540145985401452</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="6">
-        <v>23</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="10">
-        <v>786000</v>
-      </c>
-      <c r="F11" s="9">
-        <f t="shared" si="0"/>
-        <v>57.372262773722625</v>
-      </c>
-      <c r="H11" s="6">
-        <v>60</v>
-      </c>
-      <c r="I11" s="6">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6">
-        <v>0</v>
-      </c>
-      <c r="K11" s="6">
-        <v>0</v>
-      </c>
-      <c r="L11" s="6">
-        <v>1</v>
-      </c>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="6">
-        <v>0</v>
-      </c>
-      <c r="R11" s="6">
-        <v>33</v>
-      </c>
-      <c r="S11" s="6">
-        <v>6</v>
-      </c>
-      <c r="T11" s="6">
-        <v>0</v>
-      </c>
-      <c r="U11" s="6">
-        <v>2</v>
-      </c>
-      <c r="V11" s="6">
-        <v>0</v>
-      </c>
-      <c r="W11" s="6">
-        <v>-2</v>
-      </c>
-      <c r="X11" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="6">
-        <v>9.2000000000000011</v>
-      </c>
-      <c r="AA11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="6">
-        <v>-2</v>
-      </c>
-      <c r="AD11" s="6">
-        <v>-5</v>
-      </c>
-      <c r="AE11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="2"/>
-      <c r="AJ11" s="2">
-        <f t="shared" si="1"/>
-        <v>48.2</v>
-      </c>
-      <c r="AK11"/>
-      <c r="AL11" s="2">
-        <f t="shared" si="2"/>
-        <v>-9.1722627737226219</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="6">
-        <v>23</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="10">
-        <v>755000</v>
-      </c>
-      <c r="F12" s="9">
-        <f t="shared" si="0"/>
-        <v>55.10948905109489</v>
-      </c>
-      <c r="H12" s="6">
-        <v>56</v>
-      </c>
-      <c r="I12" s="6">
-        <v>0</v>
-      </c>
-      <c r="J12" s="6">
-        <v>0</v>
-      </c>
-      <c r="K12" s="6">
-        <v>0</v>
-      </c>
-      <c r="L12" s="6">
-        <v>0</v>
-      </c>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="6">
-        <v>1</v>
-      </c>
-      <c r="R12" s="6">
-        <v>21</v>
-      </c>
-      <c r="S12" s="6">
-        <v>4</v>
-      </c>
-      <c r="T12" s="6">
-        <v>-6</v>
-      </c>
-      <c r="U12" s="6">
-        <v>2</v>
-      </c>
-      <c r="V12" s="6">
-        <v>0</v>
-      </c>
-      <c r="W12" s="6">
-        <v>-2</v>
-      </c>
-      <c r="X12" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="6">
-        <v>15.200000000000001</v>
-      </c>
-      <c r="AA12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="6">
-        <v>-2</v>
-      </c>
-      <c r="AD12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="2"/>
+      <c r="AD12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="2"/>
       <c r="AJ12" s="2">
-        <f t="shared" si="1"/>
-        <v>34.200000000000003</v>
+        <f>SUM(R12:V12,Y12:AA12,AE12)</f>
+        <v>63.1</v>
       </c>
       <c r="AK12"/>
       <c r="AL12" s="2">
-        <f t="shared" si="2"/>
-        <v>-20.909489051094887</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <f t="shared" si="3"/>
+        <f>AJ12-F12</f>
+        <v>11.64014598540146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="4">
         <v>23</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="10">
-        <v>707000</v>
-      </c>
-      <c r="F13" s="9">
+      <c r="D13" s="5"/>
+      <c r="E13" s="8">
+        <v>697000</v>
+      </c>
+      <c r="F13" s="7">
         <f t="shared" si="0"/>
-        <v>51.605839416058394</v>
-      </c>
-      <c r="H13" s="6">
-        <v>34</v>
-      </c>
-      <c r="I13" s="6">
-        <v>0</v>
-      </c>
-      <c r="J13" s="6">
-        <v>0</v>
-      </c>
-      <c r="K13" s="6">
-        <v>0</v>
-      </c>
-      <c r="L13" s="6">
-        <v>0</v>
-      </c>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="6">
-        <v>0</v>
-      </c>
-      <c r="R13" s="6">
-        <v>29</v>
-      </c>
-      <c r="S13" s="6">
-        <v>24</v>
-      </c>
-      <c r="T13" s="6">
-        <v>-4</v>
-      </c>
-      <c r="U13" s="6">
-        <v>8</v>
-      </c>
-      <c r="V13" s="6">
-        <v>0</v>
-      </c>
-      <c r="W13" s="6">
-        <v>0</v>
-      </c>
-      <c r="X13" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="6">
-        <v>13.600000000000001</v>
-      </c>
-      <c r="AA13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="6">
-        <v>-2</v>
-      </c>
-      <c r="AD13" s="6">
-        <v>-5</v>
-      </c>
-      <c r="AE13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="6">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="2"/>
+        <v>50.875912408759127</v>
+      </c>
+      <c r="H13" s="4">
+        <v>56</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>0</v>
+      </c>
+      <c r="R13" s="4">
+        <v>48</v>
+      </c>
+      <c r="S13" s="4">
+        <v>0</v>
+      </c>
+      <c r="T13" s="4">
+        <v>-6</v>
+      </c>
+      <c r="U13" s="4">
+        <v>2</v>
+      </c>
+      <c r="V13" s="4">
+        <v>4</v>
+      </c>
+      <c r="W13" s="4">
+        <v>0</v>
+      </c>
+      <c r="X13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="14">
+        <v>10.3</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="2"/>
       <c r="AJ13" s="2">
-        <f t="shared" si="1"/>
-        <v>70.599999999999994</v>
+        <f>SUM(R13:V13,Y13:AA13,AE13)</f>
+        <v>58.3</v>
       </c>
       <c r="AK13"/>
       <c r="AL13" s="2">
-        <f t="shared" si="2"/>
-        <v>18.9941605839416</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
-        <f t="shared" si="3"/>
+        <f>AJ13-F13</f>
+        <v>7.4240875912408697</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="4">
         <v>23</v>
       </c>
-      <c r="E14" s="10">
-        <v>700000</v>
-      </c>
-      <c r="F14" s="9">
+      <c r="E14" s="8">
+        <v>693000</v>
+      </c>
+      <c r="F14" s="7">
         <f t="shared" si="0"/>
-        <v>51.094890510948908</v>
-      </c>
-      <c r="H14" s="6">
-        <v>77</v>
-      </c>
-      <c r="R14" s="6">
-        <v>29</v>
-      </c>
-      <c r="S14" s="6">
-        <v>18</v>
-      </c>
-      <c r="T14" s="6">
+        <v>50.583941605839414</v>
+      </c>
+      <c r="H14" s="4">
+        <v>84</v>
+      </c>
+      <c r="R14" s="4">
+        <v>58</v>
+      </c>
+      <c r="S14" s="4">
+        <v>6</v>
+      </c>
+      <c r="T14" s="4">
         <v>-6</v>
       </c>
-      <c r="U14" s="6">
-        <v>0</v>
-      </c>
-      <c r="V14" s="6">
-        <v>0</v>
-      </c>
-      <c r="W14" s="6">
-        <v>0</v>
-      </c>
-      <c r="X14" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="6">
-        <v>23.400000000000002</v>
-      </c>
-      <c r="AA14" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="6">
-        <v>0</v>
-      </c>
+      <c r="U14" s="4">
+        <v>2</v>
+      </c>
+      <c r="V14" s="4">
+        <v>0</v>
+      </c>
+      <c r="W14" s="4">
+        <v>0</v>
+      </c>
+      <c r="X14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="14">
+        <v>13.9</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="4">
+        <v>-2</v>
+      </c>
+      <c r="AD14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>2</v>
+      </c>
+      <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
-      <c r="AI14" s="2"/>
       <c r="AJ14" s="2">
-        <f t="shared" si="1"/>
-        <v>64.400000000000006</v>
+        <f>SUM(R14:V14,Y14:AA14,AE14)</f>
+        <v>73.900000000000006</v>
       </c>
       <c r="AK14"/>
       <c r="AL14" s="2">
-        <f t="shared" si="2"/>
-        <v>13.305109489051098</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
-        <f t="shared" si="3"/>
+        <f>AJ14-F14</f>
+        <v>23.316058394160592</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="4">
         <v>23</v>
       </c>
-      <c r="E15" s="10">
-        <v>715000</v>
-      </c>
-      <c r="F15" s="9">
+      <c r="E15" s="8">
+        <v>731000</v>
+      </c>
+      <c r="F15" s="7">
         <f t="shared" si="0"/>
-        <v>52.189781021897808</v>
-      </c>
-      <c r="H15" s="6">
-        <v>73</v>
-      </c>
-      <c r="R15" s="6">
+        <v>53.357664233576642</v>
+      </c>
+      <c r="H15" s="4">
+        <v>53</v>
+      </c>
+      <c r="R15" s="4">
         <v>38</v>
       </c>
-      <c r="S15" s="6">
-        <v>20</v>
-      </c>
-      <c r="T15" s="6">
-        <v>-6</v>
-      </c>
-      <c r="U15" s="6">
+      <c r="S15" s="4">
         <v>8</v>
       </c>
-      <c r="V15" s="6">
-        <v>0</v>
-      </c>
-      <c r="W15" s="6">
-        <v>0</v>
-      </c>
-      <c r="X15" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="6">
-        <v>16.5</v>
-      </c>
-      <c r="AA15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="6">
-        <v>0</v>
-      </c>
+      <c r="T15" s="4">
+        <v>-8</v>
+      </c>
+      <c r="U15" s="4">
+        <v>2</v>
+      </c>
+      <c r="V15" s="4">
+        <v>4</v>
+      </c>
+      <c r="W15" s="4">
+        <v>-2</v>
+      </c>
+      <c r="X15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="14">
+        <v>13.9</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
-      <c r="AI15" s="2"/>
       <c r="AJ15" s="2">
-        <f t="shared" si="1"/>
-        <v>76.5</v>
+        <f>SUM(R15:V15,Y15:AA15,AE15)</f>
+        <v>57.9</v>
       </c>
       <c r="AK15"/>
       <c r="AL15" s="2">
-        <f t="shared" si="2"/>
-        <v>24.310218978102192</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
-        <f t="shared" si="3"/>
+        <f>AJ15-F15</f>
+        <v>4.5423357664233563</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="4">
         <v>23</v>
       </c>
-      <c r="E16" s="10">
-        <v>767000</v>
-      </c>
-      <c r="F16" s="9">
+      <c r="E16" s="8">
+        <v>749000</v>
+      </c>
+      <c r="F16" s="7">
         <f t="shared" si="0"/>
-        <v>55.985401459854018</v>
-      </c>
-      <c r="H16" s="6">
-        <v>98</v>
-      </c>
-      <c r="R16" s="6">
-        <v>31</v>
-      </c>
-      <c r="S16" s="6">
+        <v>54.67153284671533</v>
+      </c>
+      <c r="H16" s="4">
+        <v>40</v>
+      </c>
+      <c r="R16" s="4">
+        <v>35</v>
+      </c>
+      <c r="S16" s="4">
+        <v>0</v>
+      </c>
+      <c r="T16" s="4">
+        <v>-16</v>
+      </c>
+      <c r="U16" s="4">
+        <v>2</v>
+      </c>
+      <c r="V16" s="4">
         <v>4</v>
       </c>
-      <c r="T16" s="6">
-        <v>-8</v>
-      </c>
-      <c r="U16" s="6">
-        <v>2</v>
-      </c>
-      <c r="V16" s="6">
-        <v>0</v>
-      </c>
-      <c r="W16" s="6">
-        <v>-2</v>
-      </c>
-      <c r="X16" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="6">
-        <v>12.9</v>
-      </c>
-      <c r="AA16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="6">
-        <v>0</v>
-      </c>
+      <c r="W16" s="4">
+        <v>0</v>
+      </c>
+      <c r="X16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="14">
+        <v>17.2</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
-      <c r="AI16" s="2"/>
       <c r="AJ16" s="2">
-        <f t="shared" si="1"/>
-        <v>39.9</v>
+        <f>SUM(R16:V16,Y16:AA16,AE16)</f>
+        <v>42.2</v>
       </c>
       <c r="AK16"/>
       <c r="AL16" s="2">
-        <f t="shared" si="2"/>
-        <v>-16.085401459854019</v>
-      </c>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
-        <f t="shared" si="3"/>
+        <f>AJ16-F16</f>
+        <v>-12.471532846715327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="4">
         <v>23</v>
       </c>
-      <c r="E17" s="10">
-        <v>777000</v>
-      </c>
-      <c r="F17" s="9">
+      <c r="E17" s="8">
+        <v>740000</v>
+      </c>
+      <c r="F17" s="7">
         <f t="shared" si="0"/>
-        <v>56.715328467153284</v>
-      </c>
-      <c r="H17" s="6">
-        <v>41</v>
-      </c>
-      <c r="R17" s="6">
-        <v>36</v>
-      </c>
-      <c r="S17" s="6">
-        <v>6</v>
-      </c>
-      <c r="T17" s="6">
-        <v>-6</v>
-      </c>
-      <c r="U17" s="6">
-        <v>6</v>
-      </c>
-      <c r="V17" s="6">
-        <v>0</v>
-      </c>
-      <c r="W17" s="6">
+        <v>54.014598540145982</v>
+      </c>
+      <c r="H17" s="4">
+        <v>64</v>
+      </c>
+      <c r="R17" s="4">
+        <v>29</v>
+      </c>
+      <c r="S17" s="4">
+        <v>4</v>
+      </c>
+      <c r="T17" s="4">
         <v>-4</v>
       </c>
-      <c r="X17" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="6">
+      <c r="U17" s="4">
+        <v>8</v>
+      </c>
+      <c r="V17" s="4">
+        <v>16</v>
+      </c>
+      <c r="W17" s="4">
+        <v>0</v>
+      </c>
+      <c r="X17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="4">
         <v>4</v>
       </c>
-      <c r="Z17" s="6">
-        <v>21</v>
-      </c>
-      <c r="AA17" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="6">
-        <v>0</v>
-      </c>
+      <c r="Z17" s="14">
+        <v>15.100000000000001</v>
+      </c>
+      <c r="AA17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
-      <c r="AI17" s="2"/>
       <c r="AJ17" s="2">
-        <f t="shared" si="1"/>
-        <v>59</v>
+        <f>SUM(R17:V17,Y17:AA17,AE17)</f>
+        <v>72.099999999999994</v>
       </c>
       <c r="AK17"/>
       <c r="AL17" s="2">
-        <f t="shared" si="2"/>
-        <v>2.2846715328467155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
-        <f t="shared" si="3"/>
+        <f>AJ17-F17</f>
+        <v>18.085401459854012</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="4">
         <v>23</v>
       </c>
-      <c r="E18" s="10">
-        <v>784000</v>
-      </c>
-      <c r="F18" s="9">
+      <c r="E18" s="8">
+        <v>744000</v>
+      </c>
+      <c r="F18" s="7">
         <f t="shared" si="0"/>
-        <v>57.226277372262771</v>
-      </c>
-      <c r="H18" s="6">
-        <v>66</v>
-      </c>
-      <c r="R18" s="6">
-        <v>39</v>
-      </c>
-      <c r="S18" s="6">
-        <v>14</v>
-      </c>
-      <c r="T18" s="6">
-        <v>0</v>
-      </c>
-      <c r="U18" s="6">
-        <v>0</v>
-      </c>
-      <c r="V18" s="6">
-        <v>0</v>
-      </c>
-      <c r="W18" s="6">
+        <v>54.306569343065696</v>
+      </c>
+      <c r="H18" s="4">
+        <v>59</v>
+      </c>
+      <c r="R18" s="4">
+        <v>33</v>
+      </c>
+      <c r="S18" s="4">
+        <v>6</v>
+      </c>
+      <c r="T18" s="4">
+        <v>-8</v>
+      </c>
+      <c r="U18" s="4">
+        <v>8</v>
+      </c>
+      <c r="V18" s="4">
+        <v>12</v>
+      </c>
+      <c r="W18" s="4">
+        <v>0</v>
+      </c>
+      <c r="X18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>4</v>
+      </c>
+      <c r="Z18" s="14">
+        <v>12.700000000000001</v>
+      </c>
+      <c r="AA18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="4">
         <v>-2</v>
       </c>
-      <c r="X18" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="6">
-        <v>14.200000000000001</v>
-      </c>
-      <c r="AA18" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="6">
-        <v>0</v>
-      </c>
+      <c r="AD18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
-      <c r="AI18" s="2"/>
       <c r="AJ18" s="2">
-        <f t="shared" si="1"/>
-        <v>65.2</v>
+        <f>SUM(R18:V18,Y18:AA18,AE18)</f>
+        <v>67.7</v>
       </c>
       <c r="AK18"/>
       <c r="AL18" s="2">
-        <f t="shared" si="2"/>
-        <v>7.9737226277372315</v>
-      </c>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
-        <f t="shared" si="3"/>
+        <f>AJ18-F18</f>
+        <v>13.393430656934306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="4">
         <v>23</v>
       </c>
-      <c r="E19" s="10">
-        <v>790000</v>
-      </c>
-      <c r="F19" s="9">
+      <c r="E19" s="8">
+        <v>745000</v>
+      </c>
+      <c r="F19" s="7">
         <f t="shared" si="0"/>
-        <v>57.664233576642339</v>
-      </c>
-      <c r="H19" s="6">
-        <v>72</v>
-      </c>
-      <c r="R19" s="6">
-        <v>49</v>
-      </c>
-      <c r="S19" s="6">
-        <v>2</v>
-      </c>
-      <c r="T19" s="6">
-        <v>-8</v>
-      </c>
-      <c r="U19" s="6">
-        <v>2</v>
-      </c>
-      <c r="V19" s="6">
-        <v>0</v>
-      </c>
-      <c r="W19" s="6">
-        <v>0</v>
-      </c>
-      <c r="X19" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="6">
-        <v>10</v>
-      </c>
-      <c r="AA19" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="AB19" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="6">
-        <v>-2</v>
-      </c>
-      <c r="AD19" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="6">
-        <v>0</v>
-      </c>
+        <v>54.379562043795623</v>
+      </c>
+      <c r="H19" s="4">
+        <v>74</v>
+      </c>
+      <c r="R19" s="4">
+        <v>44</v>
+      </c>
+      <c r="S19" s="4">
+        <v>0</v>
+      </c>
+      <c r="T19" s="4">
+        <v>-10</v>
+      </c>
+      <c r="U19" s="4">
+        <v>8</v>
+      </c>
+      <c r="V19" s="4">
+        <v>16</v>
+      </c>
+      <c r="W19" s="4">
+        <v>0</v>
+      </c>
+      <c r="X19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="4">
+        <v>8</v>
+      </c>
+      <c r="Z19" s="14">
+        <v>16.400000000000002</v>
+      </c>
+      <c r="AA19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
-      <c r="AI19" s="2"/>
       <c r="AJ19" s="2">
-        <f t="shared" si="1"/>
-        <v>55.8</v>
+        <f>SUM(R19:V19,Y19:AA19,AE19)</f>
+        <v>82.4</v>
       </c>
       <c r="AK19"/>
       <c r="AL19" s="2">
-        <f t="shared" si="2"/>
-        <v>-1.8642335766423415</v>
-      </c>
-    </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
-        <f t="shared" si="3"/>
+        <f>AJ19-F19</f>
+        <v>28.020437956204383</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="4">
         <v>23</v>
       </c>
-      <c r="E20" s="10">
-        <v>783000</v>
-      </c>
-      <c r="F20" s="9">
+      <c r="E20" s="8">
+        <v>761000</v>
+      </c>
+      <c r="F20" s="7">
         <f t="shared" si="0"/>
-        <v>57.153284671532845</v>
-      </c>
-      <c r="H20" s="6">
-        <v>55</v>
-      </c>
-      <c r="R20" s="6">
-        <v>33</v>
-      </c>
-      <c r="S20" s="6">
+        <v>55.54744525547445</v>
+      </c>
+      <c r="H20" s="4">
+        <v>59</v>
+      </c>
+      <c r="R20" s="4">
+        <v>39</v>
+      </c>
+      <c r="S20" s="4">
+        <v>10</v>
+      </c>
+      <c r="T20" s="4">
+        <v>-8</v>
+      </c>
+      <c r="U20" s="4">
         <v>2</v>
       </c>
-      <c r="T20" s="6">
-        <v>0</v>
-      </c>
-      <c r="U20" s="6">
-        <v>0</v>
-      </c>
-      <c r="V20" s="6">
-        <v>0</v>
-      </c>
-      <c r="W20" s="6">
-        <v>0</v>
-      </c>
-      <c r="X20" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="6">
+      <c r="V20" s="4">
         <v>4</v>
       </c>
-      <c r="Z20" s="6">
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="AA20" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="6">
-        <v>0</v>
-      </c>
+      <c r="W20" s="4">
+        <v>0</v>
+      </c>
+      <c r="X20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="14">
+        <v>16</v>
+      </c>
+      <c r="AA20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="4">
+        <v>-2</v>
+      </c>
+      <c r="AD20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
-      <c r="AI20" s="2"/>
       <c r="AJ20" s="2">
-        <f t="shared" si="1"/>
-        <v>41.8</v>
+        <f>SUM(R20:V20,Y20:AA20,AE20)</f>
+        <v>63</v>
       </c>
       <c r="AK20"/>
       <c r="AL20" s="2">
-        <f t="shared" si="2"/>
-        <v>-15.353284671532847</v>
-      </c>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
-        <f t="shared" si="3"/>
+        <f>AJ20-F20</f>
+        <v>7.4525547445255498</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="4">
         <v>23</v>
       </c>
-      <c r="E21" s="10">
-        <v>757000</v>
-      </c>
-      <c r="F21" s="9">
+      <c r="E21" s="8">
+        <v>771000</v>
+      </c>
+      <c r="F21" s="7">
         <f t="shared" si="0"/>
-        <v>55.255474452554743</v>
-      </c>
-      <c r="H21" s="6">
-        <v>46</v>
-      </c>
-      <c r="R21" s="6">
-        <v>21</v>
-      </c>
-      <c r="S21" s="6">
-        <v>10</v>
-      </c>
-      <c r="T21" s="6">
-        <v>-2</v>
-      </c>
-      <c r="U21" s="6">
-        <v>0</v>
-      </c>
-      <c r="V21" s="6">
-        <v>0</v>
-      </c>
-      <c r="W21" s="6">
-        <v>0</v>
-      </c>
-      <c r="X21" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="6">
-        <v>11.3</v>
-      </c>
-      <c r="AA21" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="6">
-        <v>-2</v>
-      </c>
-      <c r="AD21" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="6">
-        <v>0</v>
-      </c>
+        <v>56.277372262773724</v>
+      </c>
+      <c r="H21" s="4">
+        <v>60</v>
+      </c>
+      <c r="R21" s="4">
+        <v>40</v>
+      </c>
+      <c r="S21" s="4">
+        <v>8</v>
+      </c>
+      <c r="T21" s="4">
+        <v>-6</v>
+      </c>
+      <c r="U21" s="4">
+        <v>2</v>
+      </c>
+      <c r="V21" s="4">
+        <v>0</v>
+      </c>
+      <c r="W21" s="4">
+        <v>0</v>
+      </c>
+      <c r="X21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>8</v>
+      </c>
+      <c r="Z21" s="14">
+        <v>8</v>
+      </c>
+      <c r="AA21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="2"/>
       <c r="AH21" s="2"/>
-      <c r="AI21" s="2"/>
       <c r="AJ21" s="2">
-        <f t="shared" si="1"/>
-        <v>40.299999999999997</v>
+        <f>SUM(R21:V21,Y21:AA21,AE21)</f>
+        <v>60</v>
       </c>
       <c r="AK21"/>
       <c r="AL21" s="2">
-        <f t="shared" si="2"/>
-        <v>-14.955474452554746</v>
-      </c>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
-        <f t="shared" si="3"/>
+        <f>AJ21-F21</f>
+        <v>3.7226277372262757</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="4">
         <v>23</v>
       </c>
-      <c r="E22" s="10">
-        <v>722000</v>
-      </c>
-      <c r="F22" s="9">
+      <c r="E22" s="8">
+        <v>780000</v>
+      </c>
+      <c r="F22" s="7">
         <f t="shared" si="0"/>
-        <v>52.700729927007302</v>
-      </c>
-      <c r="H22" s="6">
-        <v>43</v>
-      </c>
-      <c r="R22" s="6">
-        <v>35</v>
-      </c>
-      <c r="S22" s="6">
-        <v>14</v>
-      </c>
-      <c r="T22" s="6">
-        <v>-4</v>
-      </c>
-      <c r="U22" s="6">
-        <v>0</v>
-      </c>
-      <c r="V22" s="6">
-        <v>0</v>
-      </c>
-      <c r="W22" s="6">
-        <v>0</v>
-      </c>
-      <c r="X22" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="6">
-        <v>18</v>
-      </c>
-      <c r="AA22" s="6">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="6">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="6">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="6">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="6">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="6">
-        <v>0</v>
-      </c>
+        <v>56.934306569343065</v>
+      </c>
+      <c r="H22" s="4">
+        <v>54</v>
+      </c>
+      <c r="R22" s="4">
+        <v>36</v>
+      </c>
+      <c r="S22" s="4">
+        <v>10</v>
+      </c>
+      <c r="T22" s="4">
+        <v>-2</v>
+      </c>
+      <c r="U22" s="4">
+        <v>2</v>
+      </c>
+      <c r="V22" s="4">
+        <v>4</v>
+      </c>
+      <c r="W22" s="4">
+        <v>-2</v>
+      </c>
+      <c r="X22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="14">
+        <v>12.8</v>
+      </c>
+      <c r="AA22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="4">
+        <v>-2</v>
+      </c>
+      <c r="AD22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
-      <c r="AI22" s="2"/>
       <c r="AJ22" s="2">
-        <f t="shared" si="1"/>
-        <v>63</v>
+        <f>SUM(R22:V22,Y22:AA22,AE22)</f>
+        <v>62.8</v>
       </c>
       <c r="AK22"/>
       <c r="AL22" s="2">
-        <f t="shared" si="2"/>
-        <v>10.299270072992698</v>
-      </c>
-    </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="E23" s="6"/>
-      <c r="F23" s="9">
+        <f>AJ22-F22</f>
+        <v>5.8656934306569326</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="4">
+        <v>23</v>
+      </c>
+      <c r="E23" s="8">
+        <v>779000</v>
+      </c>
+      <c r="F23" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="6">
-        <v>70</v>
+        <v>56.861313868613138</v>
+      </c>
+      <c r="H23" s="4">
+        <v>37</v>
+      </c>
+      <c r="R23">
+        <v>28</v>
+      </c>
+      <c r="S23">
+        <v>4</v>
+      </c>
+      <c r="T23">
+        <v>-2</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="7">
+        <v>7.3000000000000007</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2">
+        <f>SUM(R23:V23,Y23:AA23,AE23)</f>
+        <v>37.299999999999997</v>
+      </c>
+      <c r="AK23"/>
+      <c r="AL23" s="2">
+        <f>AJ23-F23</f>
+        <v>-19.561313868613141</v>
       </c>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="E24" s="6"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="E25" s="6"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="E26" s="6"/>
+      <c r="E26" s="4"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="E27" s="6"/>
+      <c r="E27" s="4"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="E28" s="6"/>
+      <c r="E28" s="4"/>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="E29" s="6"/>
+      <c r="E29" s="4"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="E30" s="6"/>
+      <c r="E30" s="4"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.2">
@@ -5028,1897 +5114,1897 @@
       <c r="F515" s="2"/>
       <c r="AJ515"/>
       <c r="AK515"/>
-      <c r="AL515" s="5"/>
+      <c r="AL515" s="3"/>
     </row>
     <row r="516" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E516" s="2"/>
       <c r="F516" s="2"/>
       <c r="AJ516"/>
       <c r="AK516"/>
-      <c r="AL516" s="5"/>
+      <c r="AL516" s="3"/>
     </row>
     <row r="517" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E517" s="2"/>
       <c r="F517" s="2"/>
       <c r="AJ517"/>
       <c r="AK517"/>
-      <c r="AL517" s="5"/>
+      <c r="AL517" s="3"/>
     </row>
     <row r="518" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E518" s="2"/>
       <c r="F518" s="2"/>
       <c r="AJ518"/>
       <c r="AK518"/>
-      <c r="AL518" s="5"/>
+      <c r="AL518" s="3"/>
     </row>
     <row r="519" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E519" s="2"/>
       <c r="F519" s="2"/>
       <c r="AJ519"/>
       <c r="AK519"/>
-      <c r="AL519" s="5"/>
+      <c r="AL519" s="3"/>
     </row>
     <row r="520" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E520" s="2"/>
       <c r="F520" s="2"/>
       <c r="AJ520"/>
       <c r="AK520"/>
-      <c r="AL520" s="5"/>
+      <c r="AL520" s="3"/>
     </row>
     <row r="521" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E521" s="2"/>
       <c r="F521" s="2"/>
       <c r="AJ521"/>
       <c r="AK521"/>
-      <c r="AL521" s="5"/>
+      <c r="AL521" s="3"/>
     </row>
     <row r="522" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E522" s="2"/>
       <c r="F522" s="2"/>
       <c r="AJ522"/>
       <c r="AK522"/>
-      <c r="AL522" s="5"/>
+      <c r="AL522" s="3"/>
     </row>
     <row r="523" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E523" s="2"/>
       <c r="F523" s="2"/>
       <c r="AJ523"/>
       <c r="AK523"/>
-      <c r="AL523" s="5"/>
+      <c r="AL523" s="3"/>
     </row>
     <row r="524" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E524" s="2"/>
       <c r="F524" s="2"/>
       <c r="AJ524"/>
       <c r="AK524"/>
-      <c r="AL524" s="5"/>
+      <c r="AL524" s="3"/>
     </row>
     <row r="525" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E525" s="2"/>
       <c r="F525" s="2"/>
       <c r="AJ525"/>
       <c r="AK525"/>
-      <c r="AL525" s="5"/>
+      <c r="AL525" s="3"/>
     </row>
     <row r="526" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E526" s="2"/>
       <c r="F526" s="2"/>
       <c r="AJ526"/>
       <c r="AK526"/>
-      <c r="AL526" s="5"/>
+      <c r="AL526" s="3"/>
     </row>
     <row r="527" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E527" s="2"/>
       <c r="F527" s="2"/>
       <c r="AJ527"/>
       <c r="AK527"/>
-      <c r="AL527" s="5"/>
+      <c r="AL527" s="3"/>
     </row>
     <row r="528" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E528" s="2"/>
       <c r="F528" s="2"/>
       <c r="AJ528"/>
       <c r="AK528"/>
-      <c r="AL528" s="5"/>
+      <c r="AL528" s="3"/>
     </row>
     <row r="529" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E529" s="2"/>
       <c r="F529" s="2"/>
       <c r="AJ529"/>
       <c r="AK529"/>
-      <c r="AL529" s="5"/>
+      <c r="AL529" s="3"/>
     </row>
     <row r="530" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E530" s="2"/>
       <c r="F530" s="2"/>
       <c r="AJ530"/>
       <c r="AK530"/>
-      <c r="AL530" s="5"/>
+      <c r="AL530" s="3"/>
     </row>
     <row r="531" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E531" s="2"/>
       <c r="F531" s="2"/>
       <c r="AJ531"/>
       <c r="AK531"/>
-      <c r="AL531" s="5"/>
+      <c r="AL531" s="3"/>
     </row>
     <row r="532" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E532" s="2"/>
       <c r="F532" s="2"/>
       <c r="AJ532"/>
       <c r="AK532"/>
-      <c r="AL532" s="5"/>
+      <c r="AL532" s="3"/>
     </row>
     <row r="533" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E533" s="2"/>
       <c r="F533" s="2"/>
       <c r="AJ533"/>
       <c r="AK533"/>
-      <c r="AL533" s="5"/>
+      <c r="AL533" s="3"/>
     </row>
     <row r="534" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E534" s="2"/>
       <c r="F534" s="2"/>
       <c r="AJ534"/>
       <c r="AK534"/>
-      <c r="AL534" s="5"/>
+      <c r="AL534" s="3"/>
     </row>
     <row r="535" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E535" s="2"/>
       <c r="F535" s="2"/>
       <c r="AJ535"/>
       <c r="AK535"/>
-      <c r="AL535" s="5"/>
+      <c r="AL535" s="3"/>
     </row>
     <row r="536" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E536" s="2"/>
       <c r="F536" s="2"/>
       <c r="AJ536"/>
       <c r="AK536"/>
-      <c r="AL536" s="5"/>
+      <c r="AL536" s="3"/>
     </row>
     <row r="537" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E537" s="2"/>
       <c r="F537" s="2"/>
       <c r="AJ537"/>
       <c r="AK537"/>
-      <c r="AL537" s="5"/>
+      <c r="AL537" s="3"/>
     </row>
     <row r="538" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E538" s="2"/>
       <c r="F538" s="2"/>
       <c r="AJ538"/>
       <c r="AK538"/>
-      <c r="AL538" s="5"/>
+      <c r="AL538" s="3"/>
     </row>
     <row r="539" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E539" s="2"/>
       <c r="F539" s="2"/>
       <c r="AJ539"/>
       <c r="AK539"/>
-      <c r="AL539" s="5"/>
+      <c r="AL539" s="3"/>
     </row>
     <row r="540" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E540" s="2"/>
       <c r="F540" s="2"/>
       <c r="AJ540"/>
       <c r="AK540"/>
-      <c r="AL540" s="5"/>
+      <c r="AL540" s="3"/>
     </row>
     <row r="541" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E541" s="2"/>
       <c r="F541" s="2"/>
       <c r="AJ541"/>
       <c r="AK541"/>
-      <c r="AL541" s="5"/>
+      <c r="AL541" s="3"/>
     </row>
     <row r="542" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E542" s="2"/>
       <c r="F542" s="2"/>
       <c r="AJ542"/>
       <c r="AK542"/>
-      <c r="AL542" s="5"/>
+      <c r="AL542" s="3"/>
     </row>
     <row r="543" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E543" s="2"/>
       <c r="F543" s="2"/>
       <c r="AJ543"/>
       <c r="AK543"/>
-      <c r="AL543" s="5"/>
+      <c r="AL543" s="3"/>
     </row>
     <row r="544" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E544" s="2"/>
       <c r="F544" s="2"/>
       <c r="AJ544"/>
       <c r="AK544"/>
-      <c r="AL544" s="5"/>
+      <c r="AL544" s="3"/>
     </row>
     <row r="545" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E545" s="2"/>
       <c r="F545" s="2"/>
       <c r="AJ545"/>
       <c r="AK545"/>
-      <c r="AL545" s="5"/>
+      <c r="AL545" s="3"/>
     </row>
     <row r="546" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E546" s="2"/>
       <c r="F546" s="2"/>
       <c r="AJ546"/>
       <c r="AK546"/>
-      <c r="AL546" s="5"/>
+      <c r="AL546" s="3"/>
     </row>
     <row r="547" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E547" s="2"/>
       <c r="F547" s="2"/>
       <c r="AJ547"/>
       <c r="AK547"/>
-      <c r="AL547" s="5"/>
+      <c r="AL547" s="3"/>
     </row>
     <row r="548" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E548" s="2"/>
       <c r="F548" s="2"/>
       <c r="AJ548"/>
       <c r="AK548"/>
-      <c r="AL548" s="5"/>
+      <c r="AL548" s="3"/>
     </row>
     <row r="549" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E549" s="2"/>
       <c r="F549" s="2"/>
       <c r="AJ549"/>
       <c r="AK549"/>
-      <c r="AL549" s="5"/>
+      <c r="AL549" s="3"/>
     </row>
     <row r="550" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E550" s="2"/>
       <c r="F550" s="2"/>
       <c r="AJ550"/>
       <c r="AK550"/>
-      <c r="AL550" s="5"/>
+      <c r="AL550" s="3"/>
     </row>
     <row r="551" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E551" s="2"/>
       <c r="F551" s="2"/>
       <c r="AJ551"/>
       <c r="AK551"/>
-      <c r="AL551" s="5"/>
+      <c r="AL551" s="3"/>
     </row>
     <row r="552" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E552" s="2"/>
       <c r="F552" s="2"/>
       <c r="AJ552"/>
       <c r="AK552"/>
-      <c r="AL552" s="5"/>
+      <c r="AL552" s="3"/>
     </row>
     <row r="553" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E553" s="2"/>
       <c r="F553" s="2"/>
       <c r="AJ553"/>
       <c r="AK553"/>
-      <c r="AL553" s="5"/>
+      <c r="AL553" s="3"/>
     </row>
     <row r="554" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E554" s="2"/>
       <c r="F554" s="2"/>
       <c r="AJ554"/>
       <c r="AK554"/>
-      <c r="AL554" s="5"/>
+      <c r="AL554" s="3"/>
     </row>
     <row r="555" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E555" s="2"/>
       <c r="F555" s="2"/>
       <c r="AJ555"/>
       <c r="AK555"/>
-      <c r="AL555" s="5"/>
+      <c r="AL555" s="3"/>
     </row>
     <row r="556" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E556" s="2"/>
       <c r="F556" s="2"/>
       <c r="AJ556"/>
       <c r="AK556"/>
-      <c r="AL556" s="5"/>
+      <c r="AL556" s="3"/>
     </row>
     <row r="557" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E557" s="2"/>
       <c r="F557" s="2"/>
       <c r="AJ557"/>
       <c r="AK557"/>
-      <c r="AL557" s="5"/>
+      <c r="AL557" s="3"/>
     </row>
     <row r="558" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E558" s="2"/>
       <c r="F558" s="2"/>
       <c r="AJ558"/>
       <c r="AK558"/>
-      <c r="AL558" s="5"/>
+      <c r="AL558" s="3"/>
     </row>
     <row r="559" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E559" s="2"/>
       <c r="F559" s="2"/>
       <c r="AJ559"/>
       <c r="AK559"/>
-      <c r="AL559" s="5"/>
+      <c r="AL559" s="3"/>
     </row>
     <row r="560" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E560" s="2"/>
       <c r="F560" s="2"/>
       <c r="AJ560"/>
       <c r="AK560"/>
-      <c r="AL560" s="5"/>
+      <c r="AL560" s="3"/>
     </row>
     <row r="561" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E561" s="2"/>
       <c r="F561" s="2"/>
       <c r="AJ561"/>
       <c r="AK561"/>
-      <c r="AL561" s="5"/>
+      <c r="AL561" s="3"/>
     </row>
     <row r="562" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E562" s="2"/>
       <c r="F562" s="2"/>
       <c r="AJ562"/>
       <c r="AK562"/>
-      <c r="AL562" s="5"/>
+      <c r="AL562" s="3"/>
     </row>
     <row r="563" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E563" s="2"/>
       <c r="F563" s="2"/>
       <c r="AJ563"/>
       <c r="AK563"/>
-      <c r="AL563" s="5"/>
+      <c r="AL563" s="3"/>
     </row>
     <row r="564" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E564" s="2"/>
       <c r="F564" s="2"/>
       <c r="AJ564"/>
       <c r="AK564"/>
-      <c r="AL564" s="5"/>
+      <c r="AL564" s="3"/>
     </row>
     <row r="565" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E565" s="2"/>
       <c r="F565" s="2"/>
       <c r="AJ565"/>
       <c r="AK565"/>
-      <c r="AL565" s="5"/>
+      <c r="AL565" s="3"/>
     </row>
     <row r="566" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E566" s="2"/>
       <c r="F566" s="2"/>
       <c r="AJ566"/>
       <c r="AK566"/>
-      <c r="AL566" s="5"/>
+      <c r="AL566" s="3"/>
     </row>
     <row r="567" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E567" s="2"/>
       <c r="F567" s="2"/>
       <c r="AJ567"/>
       <c r="AK567"/>
-      <c r="AL567" s="5"/>
+      <c r="AL567" s="3"/>
     </row>
     <row r="568" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E568" s="2"/>
       <c r="F568" s="2"/>
       <c r="AJ568"/>
       <c r="AK568"/>
-      <c r="AL568" s="5"/>
+      <c r="AL568" s="3"/>
     </row>
     <row r="569" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E569" s="2"/>
       <c r="F569" s="2"/>
       <c r="AJ569"/>
       <c r="AK569"/>
-      <c r="AL569" s="5"/>
+      <c r="AL569" s="3"/>
     </row>
     <row r="570" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E570" s="2"/>
       <c r="F570" s="2"/>
       <c r="AJ570"/>
       <c r="AK570"/>
-      <c r="AL570" s="5"/>
+      <c r="AL570" s="3"/>
     </row>
     <row r="571" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E571" s="2"/>
       <c r="F571" s="2"/>
       <c r="AJ571"/>
       <c r="AK571"/>
-      <c r="AL571" s="5"/>
+      <c r="AL571" s="3"/>
     </row>
     <row r="572" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E572" s="2"/>
       <c r="F572" s="2"/>
       <c r="AJ572"/>
       <c r="AK572"/>
-      <c r="AL572" s="5"/>
+      <c r="AL572" s="3"/>
     </row>
     <row r="573" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E573" s="2"/>
       <c r="F573" s="2"/>
       <c r="AJ573"/>
       <c r="AK573"/>
-      <c r="AL573" s="5"/>
+      <c r="AL573" s="3"/>
     </row>
     <row r="574" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E574" s="2"/>
       <c r="F574" s="2"/>
       <c r="AJ574"/>
       <c r="AK574"/>
-      <c r="AL574" s="5"/>
+      <c r="AL574" s="3"/>
     </row>
     <row r="575" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E575" s="2"/>
       <c r="F575" s="2"/>
       <c r="AJ575"/>
       <c r="AK575"/>
-      <c r="AL575" s="5"/>
+      <c r="AL575" s="3"/>
     </row>
     <row r="576" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E576" s="2"/>
       <c r="F576" s="2"/>
       <c r="AJ576"/>
       <c r="AK576"/>
-      <c r="AL576" s="5"/>
+      <c r="AL576" s="3"/>
     </row>
     <row r="577" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E577" s="2"/>
       <c r="F577" s="2"/>
       <c r="AJ577"/>
       <c r="AK577"/>
-      <c r="AL577" s="5"/>
+      <c r="AL577" s="3"/>
     </row>
     <row r="578" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E578" s="2"/>
       <c r="F578" s="2"/>
       <c r="AJ578"/>
       <c r="AK578"/>
-      <c r="AL578" s="5"/>
+      <c r="AL578" s="3"/>
     </row>
     <row r="579" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E579" s="2"/>
       <c r="F579" s="2"/>
       <c r="AJ579"/>
       <c r="AK579"/>
-      <c r="AL579" s="5"/>
+      <c r="AL579" s="3"/>
     </row>
     <row r="580" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E580" s="2"/>
       <c r="F580" s="2"/>
       <c r="AJ580"/>
       <c r="AK580"/>
-      <c r="AL580" s="5"/>
+      <c r="AL580" s="3"/>
     </row>
     <row r="581" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E581" s="2"/>
       <c r="F581" s="2"/>
       <c r="AJ581"/>
       <c r="AK581"/>
-      <c r="AL581" s="5"/>
+      <c r="AL581" s="3"/>
     </row>
     <row r="582" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E582" s="2"/>
       <c r="F582" s="2"/>
       <c r="AJ582"/>
       <c r="AK582"/>
-      <c r="AL582" s="5"/>
+      <c r="AL582" s="3"/>
     </row>
     <row r="583" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E583" s="2"/>
       <c r="F583" s="2"/>
       <c r="AJ583"/>
       <c r="AK583"/>
-      <c r="AL583" s="5"/>
+      <c r="AL583" s="3"/>
     </row>
     <row r="584" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E584" s="2"/>
       <c r="F584" s="2"/>
       <c r="AJ584"/>
       <c r="AK584"/>
-      <c r="AL584" s="5"/>
+      <c r="AL584" s="3"/>
     </row>
     <row r="585" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E585" s="2"/>
       <c r="F585" s="2"/>
       <c r="AJ585"/>
       <c r="AK585"/>
-      <c r="AL585" s="5"/>
+      <c r="AL585" s="3"/>
     </row>
     <row r="586" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E586" s="2"/>
       <c r="F586" s="2"/>
       <c r="AJ586"/>
       <c r="AK586"/>
-      <c r="AL586" s="5"/>
+      <c r="AL586" s="3"/>
     </row>
     <row r="587" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E587" s="2"/>
       <c r="F587" s="2"/>
       <c r="AJ587"/>
       <c r="AK587"/>
-      <c r="AL587" s="5"/>
+      <c r="AL587" s="3"/>
     </row>
     <row r="588" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E588" s="2"/>
       <c r="F588" s="2"/>
       <c r="AJ588"/>
       <c r="AK588"/>
-      <c r="AL588" s="5"/>
+      <c r="AL588" s="3"/>
     </row>
     <row r="589" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E589" s="2"/>
       <c r="F589" s="2"/>
       <c r="AJ589"/>
       <c r="AK589"/>
-      <c r="AL589" s="5"/>
+      <c r="AL589" s="3"/>
     </row>
     <row r="590" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E590" s="2"/>
       <c r="F590" s="2"/>
       <c r="AJ590"/>
       <c r="AK590"/>
-      <c r="AL590" s="5"/>
+      <c r="AL590" s="3"/>
     </row>
     <row r="591" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E591" s="2"/>
       <c r="F591" s="2"/>
       <c r="AJ591"/>
       <c r="AK591"/>
-      <c r="AL591" s="5"/>
+      <c r="AL591" s="3"/>
     </row>
     <row r="592" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E592" s="2"/>
       <c r="F592" s="2"/>
       <c r="AJ592"/>
       <c r="AK592"/>
-      <c r="AL592" s="5"/>
+      <c r="AL592" s="3"/>
     </row>
     <row r="593" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E593" s="2"/>
       <c r="F593" s="2"/>
       <c r="AJ593"/>
       <c r="AK593"/>
-      <c r="AL593" s="5"/>
+      <c r="AL593" s="3"/>
     </row>
     <row r="594" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E594" s="2"/>
       <c r="F594" s="2"/>
       <c r="AJ594"/>
       <c r="AK594"/>
-      <c r="AL594" s="5"/>
+      <c r="AL594" s="3"/>
     </row>
     <row r="595" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E595" s="2"/>
       <c r="F595" s="2"/>
       <c r="AJ595"/>
       <c r="AK595"/>
-      <c r="AL595" s="5"/>
+      <c r="AL595" s="3"/>
     </row>
     <row r="596" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E596" s="2"/>
       <c r="F596" s="2"/>
       <c r="AJ596"/>
       <c r="AK596"/>
-      <c r="AL596" s="5"/>
+      <c r="AL596" s="3"/>
     </row>
     <row r="597" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E597" s="2"/>
       <c r="F597" s="2"/>
       <c r="AJ597"/>
       <c r="AK597"/>
-      <c r="AL597" s="5"/>
+      <c r="AL597" s="3"/>
     </row>
     <row r="598" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E598" s="2"/>
       <c r="F598" s="2"/>
       <c r="AJ598"/>
       <c r="AK598"/>
-      <c r="AL598" s="5"/>
+      <c r="AL598" s="3"/>
     </row>
     <row r="599" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E599" s="2"/>
       <c r="F599" s="2"/>
       <c r="AJ599"/>
       <c r="AK599"/>
-      <c r="AL599" s="5"/>
+      <c r="AL599" s="3"/>
     </row>
     <row r="600" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E600" s="2"/>
       <c r="F600" s="2"/>
       <c r="AJ600"/>
       <c r="AK600"/>
-      <c r="AL600" s="5"/>
+      <c r="AL600" s="3"/>
     </row>
     <row r="601" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E601" s="2"/>
       <c r="F601" s="2"/>
       <c r="AJ601"/>
       <c r="AK601"/>
-      <c r="AL601" s="5"/>
+      <c r="AL601" s="3"/>
     </row>
     <row r="602" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E602" s="2"/>
       <c r="F602" s="2"/>
       <c r="AJ602"/>
       <c r="AK602"/>
-      <c r="AL602" s="5"/>
+      <c r="AL602" s="3"/>
     </row>
     <row r="603" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E603" s="2"/>
       <c r="F603" s="2"/>
       <c r="AJ603"/>
       <c r="AK603"/>
-      <c r="AL603" s="5"/>
+      <c r="AL603" s="3"/>
     </row>
     <row r="604" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E604" s="2"/>
       <c r="F604" s="2"/>
       <c r="AJ604"/>
       <c r="AK604"/>
-      <c r="AL604" s="5"/>
+      <c r="AL604" s="3"/>
     </row>
     <row r="605" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E605" s="2"/>
       <c r="F605" s="2"/>
       <c r="AJ605"/>
       <c r="AK605"/>
-      <c r="AL605" s="5"/>
+      <c r="AL605" s="3"/>
     </row>
     <row r="606" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E606" s="2"/>
       <c r="F606" s="2"/>
       <c r="AJ606"/>
       <c r="AK606"/>
-      <c r="AL606" s="5"/>
+      <c r="AL606" s="3"/>
     </row>
     <row r="607" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E607" s="2"/>
       <c r="F607" s="2"/>
       <c r="AJ607"/>
       <c r="AK607"/>
-      <c r="AL607" s="5"/>
+      <c r="AL607" s="3"/>
     </row>
     <row r="608" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E608" s="2"/>
       <c r="F608" s="2"/>
       <c r="AJ608"/>
       <c r="AK608"/>
-      <c r="AL608" s="5"/>
+      <c r="AL608" s="3"/>
     </row>
     <row r="609" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E609" s="2"/>
       <c r="F609" s="2"/>
       <c r="AJ609"/>
       <c r="AK609"/>
-      <c r="AL609" s="5"/>
+      <c r="AL609" s="3"/>
     </row>
     <row r="610" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E610" s="2"/>
       <c r="F610" s="2"/>
       <c r="AJ610"/>
       <c r="AK610"/>
-      <c r="AL610" s="5"/>
+      <c r="AL610" s="3"/>
     </row>
     <row r="611" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E611" s="2"/>
       <c r="F611" s="2"/>
       <c r="AJ611"/>
       <c r="AK611"/>
-      <c r="AL611" s="5"/>
+      <c r="AL611" s="3"/>
     </row>
     <row r="612" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E612" s="2"/>
       <c r="F612" s="2"/>
       <c r="AJ612"/>
       <c r="AK612"/>
-      <c r="AL612" s="5"/>
+      <c r="AL612" s="3"/>
     </row>
     <row r="613" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E613" s="2"/>
       <c r="F613" s="2"/>
       <c r="AJ613"/>
       <c r="AK613"/>
-      <c r="AL613" s="5"/>
+      <c r="AL613" s="3"/>
     </row>
     <row r="614" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E614" s="2"/>
       <c r="F614" s="2"/>
       <c r="AJ614"/>
       <c r="AK614"/>
-      <c r="AL614" s="5"/>
+      <c r="AL614" s="3"/>
     </row>
     <row r="615" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E615" s="2"/>
       <c r="F615" s="2"/>
       <c r="AJ615"/>
       <c r="AK615"/>
-      <c r="AL615" s="5"/>
+      <c r="AL615" s="3"/>
     </row>
     <row r="616" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E616" s="2"/>
       <c r="F616" s="2"/>
       <c r="AJ616"/>
       <c r="AK616"/>
-      <c r="AL616" s="5"/>
+      <c r="AL616" s="3"/>
     </row>
     <row r="617" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E617" s="2"/>
       <c r="F617" s="2"/>
       <c r="AJ617"/>
       <c r="AK617"/>
-      <c r="AL617" s="5"/>
+      <c r="AL617" s="3"/>
     </row>
     <row r="618" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E618" s="2"/>
       <c r="F618" s="2"/>
       <c r="AJ618"/>
       <c r="AK618"/>
-      <c r="AL618" s="5"/>
+      <c r="AL618" s="3"/>
     </row>
     <row r="619" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E619" s="2"/>
       <c r="F619" s="2"/>
       <c r="AJ619"/>
       <c r="AK619"/>
-      <c r="AL619" s="5"/>
+      <c r="AL619" s="3"/>
     </row>
     <row r="620" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E620" s="2"/>
       <c r="F620" s="2"/>
       <c r="AJ620"/>
       <c r="AK620"/>
-      <c r="AL620" s="5"/>
+      <c r="AL620" s="3"/>
     </row>
     <row r="621" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E621" s="2"/>
       <c r="F621" s="2"/>
       <c r="AJ621"/>
       <c r="AK621"/>
-      <c r="AL621" s="5"/>
+      <c r="AL621" s="3"/>
     </row>
     <row r="622" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E622" s="2"/>
       <c r="F622" s="2"/>
       <c r="AJ622"/>
       <c r="AK622"/>
-      <c r="AL622" s="5"/>
+      <c r="AL622" s="3"/>
     </row>
     <row r="623" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E623" s="2"/>
       <c r="F623" s="2"/>
       <c r="AJ623"/>
       <c r="AK623"/>
-      <c r="AL623" s="5"/>
+      <c r="AL623" s="3"/>
     </row>
     <row r="624" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E624" s="2"/>
       <c r="F624" s="2"/>
       <c r="AJ624"/>
       <c r="AK624"/>
-      <c r="AL624" s="5"/>
+      <c r="AL624" s="3"/>
     </row>
     <row r="625" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E625" s="2"/>
       <c r="F625" s="2"/>
       <c r="AJ625"/>
       <c r="AK625"/>
-      <c r="AL625" s="5"/>
+      <c r="AL625" s="3"/>
     </row>
     <row r="626" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E626" s="2"/>
       <c r="F626" s="2"/>
       <c r="AJ626"/>
       <c r="AK626"/>
-      <c r="AL626" s="5"/>
+      <c r="AL626" s="3"/>
     </row>
     <row r="627" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E627" s="2"/>
       <c r="F627" s="2"/>
       <c r="AJ627"/>
       <c r="AK627"/>
-      <c r="AL627" s="5"/>
+      <c r="AL627" s="3"/>
     </row>
     <row r="628" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E628" s="2"/>
       <c r="F628" s="2"/>
       <c r="AJ628"/>
       <c r="AK628"/>
-      <c r="AL628" s="5"/>
+      <c r="AL628" s="3"/>
     </row>
     <row r="629" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E629" s="2"/>
       <c r="F629" s="2"/>
       <c r="AJ629"/>
       <c r="AK629"/>
-      <c r="AL629" s="5"/>
+      <c r="AL629" s="3"/>
     </row>
     <row r="630" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E630" s="2"/>
       <c r="F630" s="2"/>
       <c r="AJ630"/>
       <c r="AK630"/>
-      <c r="AL630" s="5"/>
+      <c r="AL630" s="3"/>
     </row>
     <row r="631" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E631" s="2"/>
       <c r="F631" s="2"/>
       <c r="AJ631"/>
       <c r="AK631"/>
-      <c r="AL631" s="5"/>
+      <c r="AL631" s="3"/>
     </row>
     <row r="632" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E632" s="2"/>
       <c r="F632" s="2"/>
       <c r="AJ632"/>
       <c r="AK632"/>
-      <c r="AL632" s="5"/>
+      <c r="AL632" s="3"/>
     </row>
     <row r="633" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E633" s="2"/>
       <c r="F633" s="2"/>
       <c r="AJ633"/>
       <c r="AK633"/>
-      <c r="AL633" s="5"/>
+      <c r="AL633" s="3"/>
     </row>
     <row r="634" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E634" s="2"/>
       <c r="F634" s="2"/>
       <c r="AJ634"/>
       <c r="AK634"/>
-      <c r="AL634" s="5"/>
+      <c r="AL634" s="3"/>
     </row>
     <row r="635" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E635" s="2"/>
       <c r="F635" s="2"/>
       <c r="AJ635"/>
       <c r="AK635"/>
-      <c r="AL635" s="5"/>
+      <c r="AL635" s="3"/>
     </row>
     <row r="636" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E636" s="2"/>
       <c r="F636" s="2"/>
       <c r="AJ636"/>
       <c r="AK636"/>
-      <c r="AL636" s="5"/>
+      <c r="AL636" s="3"/>
     </row>
     <row r="637" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E637" s="2"/>
       <c r="F637" s="2"/>
       <c r="AJ637"/>
       <c r="AK637"/>
-      <c r="AL637" s="5"/>
+      <c r="AL637" s="3"/>
     </row>
     <row r="638" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E638" s="2"/>
       <c r="F638" s="2"/>
       <c r="AJ638"/>
       <c r="AK638"/>
-      <c r="AL638" s="5"/>
+      <c r="AL638" s="3"/>
     </row>
     <row r="639" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E639" s="2"/>
       <c r="F639" s="2"/>
       <c r="AJ639"/>
       <c r="AK639"/>
-      <c r="AL639" s="5"/>
+      <c r="AL639" s="3"/>
     </row>
     <row r="640" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E640" s="2"/>
       <c r="F640" s="2"/>
       <c r="AJ640"/>
       <c r="AK640"/>
-      <c r="AL640" s="5"/>
+      <c r="AL640" s="3"/>
     </row>
     <row r="641" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E641" s="2"/>
       <c r="F641" s="2"/>
       <c r="AJ641"/>
       <c r="AK641"/>
-      <c r="AL641" s="5"/>
+      <c r="AL641" s="3"/>
     </row>
     <row r="642" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E642" s="2"/>
       <c r="F642" s="2"/>
       <c r="AJ642"/>
       <c r="AK642"/>
-      <c r="AL642" s="5"/>
+      <c r="AL642" s="3"/>
     </row>
     <row r="643" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E643" s="2"/>
       <c r="F643" s="2"/>
       <c r="AJ643"/>
       <c r="AK643"/>
-      <c r="AL643" s="5"/>
+      <c r="AL643" s="3"/>
     </row>
     <row r="644" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E644" s="2"/>
       <c r="F644" s="2"/>
       <c r="AJ644"/>
       <c r="AK644"/>
-      <c r="AL644" s="5"/>
+      <c r="AL644" s="3"/>
     </row>
     <row r="645" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E645" s="2"/>
       <c r="F645" s="2"/>
       <c r="AJ645"/>
       <c r="AK645"/>
-      <c r="AL645" s="5"/>
+      <c r="AL645" s="3"/>
     </row>
     <row r="646" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E646" s="2"/>
       <c r="F646" s="2"/>
       <c r="AJ646"/>
       <c r="AK646"/>
-      <c r="AL646" s="5"/>
+      <c r="AL646" s="3"/>
     </row>
     <row r="647" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E647" s="2"/>
       <c r="F647" s="2"/>
       <c r="AJ647"/>
       <c r="AK647"/>
-      <c r="AL647" s="5"/>
+      <c r="AL647" s="3"/>
     </row>
     <row r="648" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E648" s="2"/>
       <c r="F648" s="2"/>
       <c r="AJ648"/>
       <c r="AK648"/>
-      <c r="AL648" s="5"/>
+      <c r="AL648" s="3"/>
     </row>
     <row r="649" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E649" s="2"/>
       <c r="F649" s="2"/>
       <c r="AJ649"/>
       <c r="AK649"/>
-      <c r="AL649" s="5"/>
+      <c r="AL649" s="3"/>
     </row>
     <row r="650" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E650" s="2"/>
       <c r="F650" s="2"/>
       <c r="AJ650"/>
       <c r="AK650"/>
-      <c r="AL650" s="5"/>
+      <c r="AL650" s="3"/>
     </row>
     <row r="651" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E651" s="2"/>
       <c r="F651" s="2"/>
       <c r="AJ651"/>
       <c r="AK651"/>
-      <c r="AL651" s="5"/>
+      <c r="AL651" s="3"/>
     </row>
     <row r="652" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E652" s="2"/>
       <c r="F652" s="2"/>
       <c r="AJ652"/>
       <c r="AK652"/>
-      <c r="AL652" s="5"/>
+      <c r="AL652" s="3"/>
     </row>
     <row r="653" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E653" s="2"/>
       <c r="F653" s="2"/>
       <c r="AJ653"/>
       <c r="AK653"/>
-      <c r="AL653" s="5"/>
+      <c r="AL653" s="3"/>
     </row>
     <row r="654" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E654" s="2"/>
       <c r="F654" s="2"/>
       <c r="AJ654"/>
       <c r="AK654"/>
-      <c r="AL654" s="5"/>
+      <c r="AL654" s="3"/>
     </row>
     <row r="655" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E655" s="2"/>
       <c r="F655" s="2"/>
       <c r="AJ655"/>
       <c r="AK655"/>
-      <c r="AL655" s="5"/>
+      <c r="AL655" s="3"/>
     </row>
     <row r="656" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E656" s="2"/>
       <c r="F656" s="2"/>
       <c r="AJ656"/>
       <c r="AK656"/>
-      <c r="AL656" s="5"/>
+      <c r="AL656" s="3"/>
     </row>
     <row r="657" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E657" s="2"/>
       <c r="F657" s="2"/>
       <c r="AJ657"/>
       <c r="AK657"/>
-      <c r="AL657" s="5"/>
+      <c r="AL657" s="3"/>
     </row>
     <row r="658" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E658" s="2"/>
       <c r="F658" s="2"/>
       <c r="AJ658"/>
       <c r="AK658"/>
-      <c r="AL658" s="5"/>
+      <c r="AL658" s="3"/>
     </row>
     <row r="659" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E659" s="2"/>
       <c r="F659" s="2"/>
       <c r="AJ659"/>
       <c r="AK659"/>
-      <c r="AL659" s="5"/>
+      <c r="AL659" s="3"/>
     </row>
     <row r="660" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E660" s="2"/>
       <c r="F660" s="2"/>
       <c r="AJ660"/>
       <c r="AK660"/>
-      <c r="AL660" s="5"/>
+      <c r="AL660" s="3"/>
     </row>
     <row r="661" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E661" s="2"/>
       <c r="F661" s="2"/>
       <c r="AJ661"/>
       <c r="AK661"/>
-      <c r="AL661" s="5"/>
+      <c r="AL661" s="3"/>
     </row>
     <row r="662" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E662" s="2"/>
       <c r="F662" s="2"/>
       <c r="AJ662"/>
       <c r="AK662"/>
-      <c r="AL662" s="5"/>
+      <c r="AL662" s="3"/>
     </row>
     <row r="663" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E663" s="2"/>
       <c r="F663" s="2"/>
       <c r="AJ663"/>
       <c r="AK663"/>
-      <c r="AL663" s="5"/>
+      <c r="AL663" s="3"/>
     </row>
     <row r="664" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E664" s="2"/>
       <c r="F664" s="2"/>
       <c r="AJ664"/>
       <c r="AK664"/>
-      <c r="AL664" s="5"/>
+      <c r="AL664" s="3"/>
     </row>
     <row r="665" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E665" s="2"/>
       <c r="F665" s="2"/>
       <c r="AJ665"/>
       <c r="AK665"/>
-      <c r="AL665" s="5"/>
+      <c r="AL665" s="3"/>
     </row>
     <row r="666" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E666" s="2"/>
       <c r="F666" s="2"/>
       <c r="AJ666"/>
       <c r="AK666"/>
-      <c r="AL666" s="5"/>
+      <c r="AL666" s="3"/>
     </row>
     <row r="667" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E667" s="2"/>
       <c r="F667" s="2"/>
       <c r="AJ667"/>
       <c r="AK667"/>
-      <c r="AL667" s="5"/>
+      <c r="AL667" s="3"/>
     </row>
     <row r="668" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E668" s="2"/>
       <c r="F668" s="2"/>
       <c r="AJ668"/>
       <c r="AK668"/>
-      <c r="AL668" s="5"/>
+      <c r="AL668" s="3"/>
     </row>
     <row r="669" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E669" s="2"/>
       <c r="F669" s="2"/>
       <c r="AJ669"/>
       <c r="AK669"/>
-      <c r="AL669" s="5"/>
+      <c r="AL669" s="3"/>
     </row>
     <row r="670" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E670" s="2"/>
       <c r="F670" s="2"/>
       <c r="AJ670"/>
       <c r="AK670"/>
-      <c r="AL670" s="5"/>
+      <c r="AL670" s="3"/>
     </row>
     <row r="671" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E671" s="2"/>
       <c r="F671" s="2"/>
       <c r="AJ671"/>
       <c r="AK671"/>
-      <c r="AL671" s="5"/>
+      <c r="AL671" s="3"/>
     </row>
     <row r="672" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E672" s="2"/>
       <c r="F672" s="2"/>
       <c r="AJ672"/>
       <c r="AK672"/>
-      <c r="AL672" s="5"/>
+      <c r="AL672" s="3"/>
     </row>
     <row r="673" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E673" s="2"/>
       <c r="F673" s="2"/>
       <c r="AJ673"/>
       <c r="AK673"/>
-      <c r="AL673" s="5"/>
+      <c r="AL673" s="3"/>
     </row>
     <row r="674" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E674" s="2"/>
       <c r="F674" s="2"/>
       <c r="AJ674"/>
       <c r="AK674"/>
-      <c r="AL674" s="5"/>
+      <c r="AL674" s="3"/>
     </row>
     <row r="675" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E675" s="2"/>
       <c r="F675" s="2"/>
       <c r="AJ675"/>
       <c r="AK675"/>
-      <c r="AL675" s="5"/>
+      <c r="AL675" s="3"/>
     </row>
     <row r="676" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E676" s="2"/>
       <c r="F676" s="2"/>
       <c r="AJ676"/>
       <c r="AK676"/>
-      <c r="AL676" s="5"/>
+      <c r="AL676" s="3"/>
     </row>
     <row r="677" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E677" s="2"/>
       <c r="F677" s="2"/>
       <c r="AJ677"/>
       <c r="AK677"/>
-      <c r="AL677" s="5"/>
+      <c r="AL677" s="3"/>
     </row>
     <row r="678" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E678" s="2"/>
       <c r="F678" s="2"/>
       <c r="AJ678"/>
       <c r="AK678"/>
-      <c r="AL678" s="5"/>
+      <c r="AL678" s="3"/>
     </row>
     <row r="679" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E679" s="2"/>
       <c r="F679" s="2"/>
       <c r="AJ679"/>
       <c r="AK679"/>
-      <c r="AL679" s="5"/>
+      <c r="AL679" s="3"/>
     </row>
     <row r="680" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E680" s="2"/>
       <c r="F680" s="2"/>
       <c r="AJ680"/>
       <c r="AK680"/>
-      <c r="AL680" s="5"/>
+      <c r="AL680" s="3"/>
     </row>
     <row r="681" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E681" s="2"/>
       <c r="F681" s="2"/>
       <c r="AJ681"/>
       <c r="AK681"/>
-      <c r="AL681" s="5"/>
+      <c r="AL681" s="3"/>
     </row>
     <row r="682" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E682" s="2"/>
       <c r="F682" s="2"/>
       <c r="AJ682"/>
       <c r="AK682"/>
-      <c r="AL682" s="5"/>
+      <c r="AL682" s="3"/>
     </row>
     <row r="683" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E683" s="2"/>
       <c r="F683" s="2"/>
       <c r="AJ683"/>
       <c r="AK683"/>
-      <c r="AL683" s="5"/>
+      <c r="AL683" s="3"/>
     </row>
     <row r="684" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E684" s="2"/>
       <c r="F684" s="2"/>
       <c r="AJ684"/>
       <c r="AK684"/>
-      <c r="AL684" s="5"/>
+      <c r="AL684" s="3"/>
     </row>
     <row r="685" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E685" s="2"/>
       <c r="F685" s="2"/>
       <c r="AJ685"/>
       <c r="AK685"/>
-      <c r="AL685" s="5"/>
+      <c r="AL685" s="3"/>
     </row>
     <row r="686" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E686" s="2"/>
       <c r="F686" s="2"/>
       <c r="AJ686"/>
       <c r="AK686"/>
-      <c r="AL686" s="5"/>
+      <c r="AL686" s="3"/>
     </row>
     <row r="687" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E687" s="2"/>
       <c r="F687" s="2"/>
       <c r="AJ687"/>
       <c r="AK687"/>
-      <c r="AL687" s="5"/>
+      <c r="AL687" s="3"/>
     </row>
     <row r="688" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E688" s="2"/>
       <c r="F688" s="2"/>
       <c r="AJ688"/>
       <c r="AK688"/>
-      <c r="AL688" s="5"/>
+      <c r="AL688" s="3"/>
     </row>
     <row r="689" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E689" s="2"/>
       <c r="F689" s="2"/>
       <c r="AJ689"/>
       <c r="AK689"/>
-      <c r="AL689" s="5"/>
+      <c r="AL689" s="3"/>
     </row>
     <row r="690" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E690" s="2"/>
       <c r="F690" s="2"/>
       <c r="AJ690"/>
       <c r="AK690"/>
-      <c r="AL690" s="5"/>
+      <c r="AL690" s="3"/>
     </row>
     <row r="691" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E691" s="2"/>
       <c r="F691" s="2"/>
       <c r="AJ691"/>
       <c r="AK691"/>
-      <c r="AL691" s="5"/>
+      <c r="AL691" s="3"/>
     </row>
     <row r="692" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E692" s="2"/>
       <c r="F692" s="2"/>
       <c r="AJ692"/>
       <c r="AK692"/>
-      <c r="AL692" s="5"/>
+      <c r="AL692" s="3"/>
     </row>
     <row r="693" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E693" s="2"/>
       <c r="F693" s="2"/>
       <c r="AJ693"/>
       <c r="AK693"/>
-      <c r="AL693" s="5"/>
+      <c r="AL693" s="3"/>
     </row>
     <row r="694" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E694" s="2"/>
       <c r="F694" s="2"/>
       <c r="AJ694"/>
       <c r="AK694"/>
-      <c r="AL694" s="5"/>
+      <c r="AL694" s="3"/>
     </row>
     <row r="695" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E695" s="2"/>
       <c r="F695" s="2"/>
       <c r="AJ695"/>
       <c r="AK695"/>
-      <c r="AL695" s="5"/>
+      <c r="AL695" s="3"/>
     </row>
     <row r="696" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E696" s="2"/>
       <c r="F696" s="2"/>
       <c r="AJ696"/>
       <c r="AK696"/>
-      <c r="AL696" s="5"/>
+      <c r="AL696" s="3"/>
     </row>
     <row r="697" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E697" s="2"/>
       <c r="F697" s="2"/>
       <c r="AJ697"/>
       <c r="AK697"/>
-      <c r="AL697" s="5"/>
+      <c r="AL697" s="3"/>
     </row>
     <row r="698" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E698" s="2"/>
       <c r="F698" s="2"/>
       <c r="AJ698"/>
       <c r="AK698"/>
-      <c r="AL698" s="5"/>
+      <c r="AL698" s="3"/>
     </row>
     <row r="699" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E699" s="2"/>
       <c r="F699" s="2"/>
       <c r="AJ699"/>
       <c r="AK699"/>
-      <c r="AL699" s="5"/>
+      <c r="AL699" s="3"/>
     </row>
     <row r="700" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E700" s="2"/>
       <c r="F700" s="2"/>
       <c r="AJ700"/>
       <c r="AK700"/>
-      <c r="AL700" s="5"/>
+      <c r="AL700" s="3"/>
     </row>
     <row r="701" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E701" s="2"/>
       <c r="F701" s="2"/>
       <c r="AJ701"/>
       <c r="AK701"/>
-      <c r="AL701" s="5"/>
+      <c r="AL701" s="3"/>
     </row>
     <row r="702" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E702" s="2"/>
       <c r="F702" s="2"/>
       <c r="AJ702"/>
       <c r="AK702"/>
-      <c r="AL702" s="5"/>
+      <c r="AL702" s="3"/>
     </row>
     <row r="703" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E703" s="2"/>
       <c r="F703" s="2"/>
       <c r="AJ703"/>
       <c r="AK703"/>
-      <c r="AL703" s="5"/>
+      <c r="AL703" s="3"/>
     </row>
     <row r="704" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E704" s="2"/>
       <c r="F704" s="2"/>
       <c r="AJ704"/>
       <c r="AK704"/>
-      <c r="AL704" s="5"/>
+      <c r="AL704" s="3"/>
     </row>
     <row r="705" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E705" s="2"/>
       <c r="F705" s="2"/>
       <c r="AJ705"/>
       <c r="AK705"/>
-      <c r="AL705" s="5"/>
+      <c r="AL705" s="3"/>
     </row>
     <row r="706" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E706" s="2"/>
       <c r="F706" s="2"/>
       <c r="AJ706"/>
       <c r="AK706"/>
-      <c r="AL706" s="5"/>
+      <c r="AL706" s="3"/>
     </row>
     <row r="707" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E707" s="2"/>
       <c r="F707" s="2"/>
       <c r="AJ707"/>
       <c r="AK707"/>
-      <c r="AL707" s="5"/>
+      <c r="AL707" s="3"/>
     </row>
     <row r="708" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E708" s="2"/>
       <c r="F708" s="2"/>
       <c r="AJ708"/>
       <c r="AK708"/>
-      <c r="AL708" s="5"/>
+      <c r="AL708" s="3"/>
     </row>
     <row r="709" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E709" s="2"/>
       <c r="F709" s="2"/>
       <c r="AJ709"/>
       <c r="AK709"/>
-      <c r="AL709" s="5"/>
+      <c r="AL709" s="3"/>
     </row>
     <row r="710" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E710" s="2"/>
       <c r="F710" s="2"/>
       <c r="AJ710"/>
       <c r="AK710"/>
-      <c r="AL710" s="5"/>
+      <c r="AL710" s="3"/>
     </row>
     <row r="711" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E711" s="2"/>
       <c r="F711" s="2"/>
       <c r="AJ711"/>
       <c r="AK711"/>
-      <c r="AL711" s="5"/>
+      <c r="AL711" s="3"/>
     </row>
     <row r="712" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E712" s="2"/>
       <c r="F712" s="2"/>
       <c r="AJ712"/>
       <c r="AK712"/>
-      <c r="AL712" s="5"/>
+      <c r="AL712" s="3"/>
     </row>
     <row r="713" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E713" s="2"/>
       <c r="F713" s="2"/>
       <c r="AJ713"/>
       <c r="AK713"/>
-      <c r="AL713" s="5"/>
+      <c r="AL713" s="3"/>
     </row>
     <row r="714" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E714" s="2"/>
       <c r="F714" s="2"/>
       <c r="AJ714"/>
       <c r="AK714"/>
-      <c r="AL714" s="5"/>
+      <c r="AL714" s="3"/>
     </row>
     <row r="715" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E715" s="2"/>
       <c r="F715" s="2"/>
       <c r="AJ715"/>
       <c r="AK715"/>
-      <c r="AL715" s="5"/>
+      <c r="AL715" s="3"/>
     </row>
     <row r="716" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E716" s="2"/>
       <c r="F716" s="2"/>
       <c r="AJ716"/>
       <c r="AK716"/>
-      <c r="AL716" s="5"/>
+      <c r="AL716" s="3"/>
     </row>
     <row r="717" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E717" s="2"/>
       <c r="F717" s="2"/>
       <c r="AJ717"/>
       <c r="AK717"/>
-      <c r="AL717" s="5"/>
+      <c r="AL717" s="3"/>
     </row>
     <row r="718" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E718" s="2"/>
       <c r="F718" s="2"/>
       <c r="AJ718"/>
       <c r="AK718"/>
-      <c r="AL718" s="5"/>
+      <c r="AL718" s="3"/>
     </row>
     <row r="719" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E719" s="2"/>
       <c r="F719" s="2"/>
       <c r="AJ719"/>
       <c r="AK719"/>
-      <c r="AL719" s="5"/>
+      <c r="AL719" s="3"/>
     </row>
     <row r="720" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E720" s="2"/>
       <c r="F720" s="2"/>
       <c r="AJ720"/>
       <c r="AK720"/>
-      <c r="AL720" s="5"/>
+      <c r="AL720" s="3"/>
     </row>
     <row r="721" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E721" s="2"/>
       <c r="F721" s="2"/>
       <c r="AJ721"/>
       <c r="AK721"/>
-      <c r="AL721" s="5"/>
+      <c r="AL721" s="3"/>
     </row>
     <row r="722" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E722" s="2"/>
       <c r="F722" s="2"/>
       <c r="AJ722"/>
       <c r="AK722"/>
-      <c r="AL722" s="5"/>
+      <c r="AL722" s="3"/>
     </row>
     <row r="723" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E723" s="2"/>
       <c r="F723" s="2"/>
       <c r="AJ723"/>
       <c r="AK723"/>
-      <c r="AL723" s="5"/>
+      <c r="AL723" s="3"/>
     </row>
     <row r="724" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E724" s="2"/>
       <c r="F724" s="2"/>
       <c r="AJ724"/>
       <c r="AK724"/>
-      <c r="AL724" s="5"/>
+      <c r="AL724" s="3"/>
     </row>
     <row r="725" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E725" s="2"/>
       <c r="F725" s="2"/>
       <c r="AJ725"/>
       <c r="AK725"/>
-      <c r="AL725" s="5"/>
+      <c r="AL725" s="3"/>
     </row>
     <row r="726" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E726" s="2"/>
       <c r="F726" s="2"/>
       <c r="AJ726"/>
       <c r="AK726"/>
-      <c r="AL726" s="5"/>
+      <c r="AL726" s="3"/>
     </row>
     <row r="727" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E727" s="2"/>
       <c r="F727" s="2"/>
       <c r="AJ727"/>
       <c r="AK727"/>
-      <c r="AL727" s="5"/>
+      <c r="AL727" s="3"/>
     </row>
     <row r="728" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E728" s="2"/>
       <c r="F728" s="2"/>
       <c r="AJ728"/>
       <c r="AK728"/>
-      <c r="AL728" s="5"/>
+      <c r="AL728" s="3"/>
     </row>
     <row r="729" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E729" s="2"/>
       <c r="F729" s="2"/>
       <c r="AJ729"/>
       <c r="AK729"/>
-      <c r="AL729" s="5"/>
+      <c r="AL729" s="3"/>
     </row>
     <row r="730" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E730" s="2"/>
       <c r="F730" s="2"/>
       <c r="AJ730"/>
       <c r="AK730"/>
-      <c r="AL730" s="5"/>
+      <c r="AL730" s="3"/>
     </row>
     <row r="731" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E731" s="2"/>
       <c r="F731" s="2"/>
       <c r="AJ731"/>
       <c r="AK731"/>
-      <c r="AL731" s="5"/>
+      <c r="AL731" s="3"/>
     </row>
     <row r="732" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E732" s="2"/>
       <c r="F732" s="2"/>
       <c r="AJ732"/>
       <c r="AK732"/>
-      <c r="AL732" s="5"/>
+      <c r="AL732" s="3"/>
     </row>
     <row r="733" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E733" s="2"/>
       <c r="F733" s="2"/>
       <c r="AJ733"/>
       <c r="AK733"/>
-      <c r="AL733" s="5"/>
+      <c r="AL733" s="3"/>
     </row>
     <row r="734" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E734" s="2"/>
       <c r="F734" s="2"/>
       <c r="AJ734"/>
       <c r="AK734"/>
-      <c r="AL734" s="5"/>
+      <c r="AL734" s="3"/>
     </row>
     <row r="735" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E735" s="2"/>
       <c r="F735" s="2"/>
       <c r="AJ735"/>
       <c r="AK735"/>
-      <c r="AL735" s="5"/>
+      <c r="AL735" s="3"/>
     </row>
     <row r="736" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E736" s="2"/>
       <c r="F736" s="2"/>
       <c r="AJ736"/>
       <c r="AK736"/>
-      <c r="AL736" s="5"/>
+      <c r="AL736" s="3"/>
     </row>
     <row r="737" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E737" s="2"/>
       <c r="F737" s="2"/>
       <c r="AJ737"/>
       <c r="AK737"/>
-      <c r="AL737" s="5"/>
+      <c r="AL737" s="3"/>
     </row>
     <row r="738" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E738" s="2"/>
       <c r="F738" s="2"/>
       <c r="AJ738"/>
       <c r="AK738"/>
-      <c r="AL738" s="5"/>
+      <c r="AL738" s="3"/>
     </row>
     <row r="739" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E739" s="2"/>
       <c r="F739" s="2"/>
       <c r="AJ739"/>
       <c r="AK739"/>
-      <c r="AL739" s="5"/>
+      <c r="AL739" s="3"/>
     </row>
     <row r="740" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E740" s="2"/>
       <c r="F740" s="2"/>
       <c r="AJ740"/>
       <c r="AK740"/>
-      <c r="AL740" s="5"/>
+      <c r="AL740" s="3"/>
     </row>
     <row r="741" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E741" s="2"/>
       <c r="F741" s="2"/>
       <c r="AJ741"/>
       <c r="AK741"/>
-      <c r="AL741" s="5"/>
+      <c r="AL741" s="3"/>
     </row>
     <row r="742" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E742" s="2"/>
       <c r="F742" s="2"/>
       <c r="AJ742"/>
       <c r="AK742"/>
-      <c r="AL742" s="5"/>
+      <c r="AL742" s="3"/>
     </row>
     <row r="743" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E743" s="2"/>
       <c r="F743" s="2"/>
       <c r="AJ743"/>
       <c r="AK743"/>
-      <c r="AL743" s="5"/>
+      <c r="AL743" s="3"/>
     </row>
     <row r="744" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E744" s="2"/>
       <c r="F744" s="2"/>
       <c r="AJ744"/>
       <c r="AK744"/>
-      <c r="AL744" s="5"/>
+      <c r="AL744" s="3"/>
     </row>
     <row r="745" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E745" s="2"/>
       <c r="F745" s="2"/>
       <c r="AJ745"/>
       <c r="AK745"/>
-      <c r="AL745" s="5"/>
+      <c r="AL745" s="3"/>
     </row>
     <row r="746" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E746" s="2"/>
       <c r="F746" s="2"/>
       <c r="AJ746"/>
       <c r="AK746"/>
-      <c r="AL746" s="5"/>
+      <c r="AL746" s="3"/>
     </row>
     <row r="747" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E747" s="2"/>
       <c r="F747" s="2"/>
       <c r="AJ747"/>
       <c r="AK747"/>
-      <c r="AL747" s="5"/>
+      <c r="AL747" s="3"/>
     </row>
     <row r="748" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E748" s="2"/>
       <c r="F748" s="2"/>
       <c r="AJ748"/>
       <c r="AK748"/>
-      <c r="AL748" s="5"/>
+      <c r="AL748" s="3"/>
     </row>
     <row r="749" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E749" s="2"/>
       <c r="F749" s="2"/>
       <c r="AJ749"/>
       <c r="AK749"/>
-      <c r="AL749" s="5"/>
+      <c r="AL749" s="3"/>
     </row>
     <row r="750" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E750" s="2"/>
       <c r="F750" s="2"/>
       <c r="AJ750"/>
       <c r="AK750"/>
-      <c r="AL750" s="5"/>
+      <c r="AL750" s="3"/>
     </row>
     <row r="751" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E751" s="2"/>
       <c r="F751" s="2"/>
       <c r="AJ751"/>
       <c r="AK751"/>
-      <c r="AL751" s="5"/>
+      <c r="AL751" s="3"/>
     </row>
     <row r="752" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E752" s="2"/>
       <c r="F752" s="2"/>
       <c r="AJ752"/>
       <c r="AK752"/>
-      <c r="AL752" s="5"/>
+      <c r="AL752" s="3"/>
     </row>
     <row r="753" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E753" s="2"/>
       <c r="F753" s="2"/>
       <c r="AJ753"/>
       <c r="AK753"/>
-      <c r="AL753" s="5"/>
+      <c r="AL753" s="3"/>
     </row>
     <row r="754" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E754" s="2"/>
       <c r="F754" s="2"/>
       <c r="AJ754"/>
       <c r="AK754"/>
-      <c r="AL754" s="5"/>
+      <c r="AL754" s="3"/>
     </row>
     <row r="755" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E755" s="2"/>
       <c r="F755" s="2"/>
       <c r="AJ755"/>
       <c r="AK755"/>
-      <c r="AL755" s="5"/>
+      <c r="AL755" s="3"/>
     </row>
     <row r="756" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E756" s="2"/>
       <c r="F756" s="2"/>
       <c r="AJ756"/>
       <c r="AK756"/>
-      <c r="AL756" s="5"/>
+      <c r="AL756" s="3"/>
     </row>
     <row r="757" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E757" s="2"/>
       <c r="F757" s="2"/>
       <c r="AJ757"/>
       <c r="AK757"/>
-      <c r="AL757" s="5"/>
+      <c r="AL757" s="3"/>
     </row>
     <row r="758" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E758" s="2"/>
       <c r="F758" s="2"/>
       <c r="AJ758"/>
       <c r="AK758"/>
-      <c r="AL758" s="5"/>
+      <c r="AL758" s="3"/>
     </row>
     <row r="759" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E759" s="2"/>
       <c r="F759" s="2"/>
       <c r="AJ759"/>
       <c r="AK759"/>
-      <c r="AL759" s="5"/>
+      <c r="AL759" s="3"/>
     </row>
     <row r="760" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E760" s="2"/>
       <c r="F760" s="2"/>
       <c r="AJ760"/>
       <c r="AK760"/>
-      <c r="AL760" s="5"/>
+      <c r="AL760" s="3"/>
     </row>
     <row r="761" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E761" s="2"/>
       <c r="F761" s="2"/>
       <c r="AJ761"/>
       <c r="AK761"/>
-      <c r="AL761" s="5"/>
+      <c r="AL761" s="3"/>
     </row>
     <row r="762" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E762" s="2"/>
       <c r="F762" s="2"/>
       <c r="AJ762"/>
       <c r="AK762"/>
-      <c r="AL762" s="5"/>
+      <c r="AL762" s="3"/>
     </row>
     <row r="763" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E763" s="2"/>
       <c r="F763" s="2"/>
       <c r="AJ763"/>
       <c r="AK763"/>
-      <c r="AL763" s="5"/>
+      <c r="AL763" s="3"/>
     </row>
     <row r="764" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E764" s="2"/>
       <c r="F764" s="2"/>
       <c r="AJ764"/>
       <c r="AK764"/>
-      <c r="AL764" s="5"/>
+      <c r="AL764" s="3"/>
     </row>
     <row r="765" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E765" s="2"/>
       <c r="F765" s="2"/>
       <c r="AJ765"/>
       <c r="AK765"/>
-      <c r="AL765" s="5"/>
+      <c r="AL765" s="3"/>
     </row>
     <row r="766" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E766" s="2"/>
       <c r="F766" s="2"/>
       <c r="AJ766"/>
       <c r="AK766"/>
-      <c r="AL766" s="5"/>
+      <c r="AL766" s="3"/>
     </row>
     <row r="767" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E767" s="2"/>
       <c r="F767" s="2"/>
       <c r="AJ767"/>
       <c r="AK767"/>
-      <c r="AL767" s="5"/>
+      <c r="AL767" s="3"/>
     </row>
     <row r="768" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E768" s="2"/>
       <c r="F768" s="2"/>
       <c r="AJ768"/>
       <c r="AK768"/>
-      <c r="AL768" s="5"/>
+      <c r="AL768" s="3"/>
     </row>
     <row r="769" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E769" s="2"/>
       <c r="F769" s="2"/>
       <c r="AJ769"/>
       <c r="AK769"/>
-      <c r="AL769" s="5"/>
+      <c r="AL769" s="3"/>
     </row>
     <row r="770" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E770" s="2"/>
       <c r="F770" s="2"/>
       <c r="AJ770"/>
       <c r="AK770"/>
-      <c r="AL770" s="5"/>
+      <c r="AL770" s="3"/>
     </row>
     <row r="771" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E771" s="2"/>
       <c r="F771" s="2"/>
       <c r="AJ771"/>
       <c r="AK771"/>
-      <c r="AL771" s="5"/>
+      <c r="AL771" s="3"/>
     </row>
     <row r="772" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E772" s="2"/>
       <c r="F772" s="2"/>
       <c r="AJ772"/>
       <c r="AK772"/>
-      <c r="AL772" s="5"/>
+      <c r="AL772" s="3"/>
     </row>
     <row r="773" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E773" s="2"/>
       <c r="F773" s="2"/>
       <c r="AJ773"/>
       <c r="AK773"/>
-      <c r="AL773" s="5"/>
+      <c r="AL773" s="3"/>
     </row>
     <row r="774" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E774" s="2"/>
       <c r="F774" s="2"/>
       <c r="AJ774"/>
       <c r="AK774"/>
-      <c r="AL774" s="5"/>
+      <c r="AL774" s="3"/>
     </row>
     <row r="775" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E775" s="2"/>
       <c r="F775" s="2"/>
       <c r="AJ775"/>
       <c r="AK775"/>
-      <c r="AL775" s="5"/>
+      <c r="AL775" s="3"/>
     </row>
     <row r="776" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E776" s="2"/>
       <c r="F776" s="2"/>
       <c r="AJ776"/>
       <c r="AK776"/>
-      <c r="AL776" s="5"/>
+      <c r="AL776" s="3"/>
     </row>
     <row r="777" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E777" s="2"/>
       <c r="F777" s="2"/>
       <c r="AJ777"/>
       <c r="AK777"/>
-      <c r="AL777" s="5"/>
+      <c r="AL777" s="3"/>
     </row>
     <row r="778" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E778" s="2"/>
       <c r="F778" s="2"/>
       <c r="AJ778"/>
       <c r="AK778"/>
-      <c r="AL778" s="5"/>
+      <c r="AL778" s="3"/>
     </row>
     <row r="779" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E779" s="2"/>
       <c r="F779" s="2"/>
       <c r="AJ779"/>
       <c r="AK779"/>
-      <c r="AL779" s="5"/>
+      <c r="AL779" s="3"/>
     </row>
     <row r="780" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E780" s="2"/>
       <c r="F780" s="2"/>
       <c r="AJ780"/>
       <c r="AK780"/>
-      <c r="AL780" s="5"/>
+      <c r="AL780" s="3"/>
     </row>
     <row r="781" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E781" s="2"/>
       <c r="F781" s="2"/>
       <c r="AJ781"/>
       <c r="AK781"/>
-      <c r="AL781" s="5"/>
+      <c r="AL781" s="3"/>
     </row>
     <row r="782" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E782" s="2"/>
       <c r="F782" s="2"/>
       <c r="AJ782"/>
       <c r="AK782"/>
-      <c r="AL782" s="5"/>
+      <c r="AL782" s="3"/>
     </row>
     <row r="783" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E783" s="2"/>
       <c r="F783" s="2"/>
       <c r="AJ783"/>
       <c r="AK783"/>
-      <c r="AL783" s="5"/>
+      <c r="AL783" s="3"/>
     </row>
     <row r="784" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E784" s="2"/>
       <c r="F784" s="2"/>
       <c r="AJ784"/>
       <c r="AK784"/>
-      <c r="AL784" s="5"/>
+      <c r="AL784" s="3"/>
     </row>
     <row r="785" spans="5:38" x14ac:dyDescent="0.2">
       <c r="E785" s="2"/>
       <c r="F785" s="2"/>
       <c r="AJ785"/>
       <c r="AK785"/>
-      <c r="AL785" s="5"/>
+      <c r="AL785" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AL785" xr:uid="{7B1841C9-D21C-2040-9467-2F510B1F6134}"/>

--- a/src/player_simulation.xlsx
+++ b/src/player_simulation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rossritchie/code/fantasy_trade_calculator/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33441D43-83C6-EE46-A927-810B8DEF3EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33E62CA-6C07-5546-AC01-EB228C40CBE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31380" yWindow="2020" windowWidth="33920" windowHeight="18340" xr2:uid="{B4242749-2F31-BC4D-9D1D-C0882BBF0A2E}"/>
+    <workbookView xWindow="31620" yWindow="2080" windowWidth="33860" windowHeight="18340" xr2:uid="{B4242749-2F31-BC4D-9D1D-C0882BBF0A2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="2" r:id="rId1"/>
@@ -1072,25 +1072,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1841C9-D21C-2040-9467-2F510B1F6134}">
-  <dimension ref="A1:AL785"/>
+  <dimension ref="A1:AN785"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomRight" activeCell="AL4" sqref="AL4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="6" width="10.83203125" customWidth="1"/>
-    <col min="13" max="27" width="10.83203125" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="15.1640625" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="34" width="10.83203125" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="27" width="10.83203125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="15.1640625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="34" width="10.83203125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="10.83203125" collapsed="1"/>
     <col min="36" max="38" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" s="9" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>33</v>
       </c>
@@ -1198,7 +1199,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1281,15 +1282,18 @@
         <v>0</v>
       </c>
       <c r="AJ2" s="2">
-        <f>SUM(R2:V2,Y2:AA2,AE2)</f>
+        <f t="shared" ref="AJ2:AJ23" si="0">SUM(R2:V2,Y2:AA2,AE2)</f>
         <v>68</v>
       </c>
       <c r="AL2" s="2">
-        <f>AJ2-F2</f>
+        <f t="shared" ref="AL2:AL23" si="1">AJ2-F2</f>
         <v>32.379562043795623</v>
       </c>
-    </row>
-    <row r="3" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="AN2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1304,7 +1308,7 @@
         <v>517000</v>
       </c>
       <c r="F3" s="7">
-        <f t="shared" ref="F3:F23" si="0">E3/13700</f>
+        <f t="shared" ref="F3:F23" si="2">E3/13700</f>
         <v>37.737226277372265</v>
       </c>
       <c r="H3" s="4">
@@ -1377,16 +1381,18 @@
       </c>
       <c r="AH3" s="2"/>
       <c r="AJ3" s="2">
-        <f>SUM(R3:V3,Y3:AA3,AE3)</f>
+        <f t="shared" si="0"/>
         <v>42.3</v>
       </c>
       <c r="AK3"/>
       <c r="AL3" s="2">
-        <f>AJ3-F3</f>
-        <v>4.5627737226277318</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="AN3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <f>A3+1</f>
         <v>3</v>
@@ -1402,7 +1408,7 @@
         <v>539000</v>
       </c>
       <c r="F4" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>39.34306569343066</v>
       </c>
       <c r="H4" s="4">
@@ -1475,18 +1481,21 @@
       </c>
       <c r="AH4" s="2"/>
       <c r="AJ4" s="2">
-        <f>SUM(R4:V4,Y4:AA4,AE4)</f>
+        <f t="shared" si="0"/>
         <v>56.6</v>
       </c>
       <c r="AK4"/>
       <c r="AL4" s="2">
-        <f>AJ4-F4</f>
+        <f t="shared" si="1"/>
         <v>17.256934306569342</v>
       </c>
-    </row>
-    <row r="5" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="AN4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <f t="shared" ref="A5:A23" si="1">A4+1</f>
+        <f t="shared" ref="A5:A23" si="3">A4+1</f>
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
@@ -1500,7 +1509,7 @@
         <v>565000</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>41.240875912408761</v>
       </c>
       <c r="H5" s="4">
@@ -1573,18 +1582,18 @@
       </c>
       <c r="AH5" s="2"/>
       <c r="AJ5" s="2">
-        <f>SUM(R5:V5,Y5:AA5,AE5)</f>
+        <f t="shared" si="0"/>
         <v>55.7</v>
       </c>
       <c r="AK5"/>
       <c r="AL5" s="2">
-        <f>AJ5-F5</f>
+        <f t="shared" si="1"/>
         <v>14.459124087591242</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -1598,7 +1607,7 @@
         <v>586000</v>
       </c>
       <c r="F6" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>42.773722627737229</v>
       </c>
       <c r="H6" s="4">
@@ -1671,18 +1680,18 @@
       </c>
       <c r="AH6" s="2"/>
       <c r="AJ6" s="2">
-        <f>SUM(R6:V6,Y6:AA6,AE6)</f>
+        <f t="shared" si="0"/>
         <v>59.7</v>
       </c>
       <c r="AK6"/>
       <c r="AL6" s="2">
-        <f>AJ6-F6</f>
+        <f t="shared" si="1"/>
         <v>16.926277372262774</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -1696,7 +1705,7 @@
         <v>617000</v>
       </c>
       <c r="F7" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>45.036496350364963</v>
       </c>
       <c r="H7" s="4">
@@ -1769,18 +1778,18 @@
       </c>
       <c r="AH7" s="2"/>
       <c r="AJ7" s="2">
-        <f>SUM(R7:V7,Y7:AA7,AE7)</f>
+        <f t="shared" si="0"/>
         <v>50.3</v>
       </c>
       <c r="AK7"/>
       <c r="AL7" s="2">
-        <f>AJ7-F7</f>
+        <f t="shared" si="1"/>
         <v>5.2635036496350338</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
@@ -1794,7 +1803,7 @@
         <v>640000</v>
       </c>
       <c r="F8" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>46.715328467153284</v>
       </c>
       <c r="H8" s="4">
@@ -1867,18 +1876,18 @@
       </c>
       <c r="AH8" s="2"/>
       <c r="AJ8" s="2">
-        <f>SUM(R8:V8,Y8:AA8,AE8)</f>
+        <f t="shared" si="0"/>
         <v>71.2</v>
       </c>
       <c r="AK8"/>
       <c r="AL8" s="2">
-        <f>AJ8-F8</f>
+        <f t="shared" si="1"/>
         <v>24.484671532846718</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
@@ -1892,7 +1901,7 @@
         <v>688000</v>
       </c>
       <c r="F9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>50.21897810218978</v>
       </c>
       <c r="H9" s="4">
@@ -1965,18 +1974,18 @@
       </c>
       <c r="AH9" s="2"/>
       <c r="AJ9" s="2">
-        <f>SUM(R9:V9,Y9:AA9,AE9)</f>
+        <f t="shared" si="0"/>
         <v>36.6</v>
       </c>
       <c r="AK9"/>
       <c r="AL9" s="2">
-        <f>AJ9-F9</f>
+        <f t="shared" si="1"/>
         <v>-13.618978102189779</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
@@ -1990,7 +1999,7 @@
         <v>701000</v>
       </c>
       <c r="F10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>51.167883211678834</v>
       </c>
       <c r="H10" s="4">
@@ -2063,18 +2072,18 @@
       </c>
       <c r="AH10" s="2"/>
       <c r="AJ10" s="2">
-        <f>SUM(R10:V10,Y10:AA10,AE10)</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="AK10"/>
       <c r="AL10" s="2">
-        <f>AJ10-F10</f>
+        <f t="shared" si="1"/>
         <v>5.8321167883211658</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -2088,7 +2097,7 @@
         <v>713000</v>
       </c>
       <c r="F11" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>52.043795620437955</v>
       </c>
       <c r="H11" s="4">
@@ -2161,18 +2170,18 @@
       </c>
       <c r="AH11" s="2"/>
       <c r="AJ11" s="2">
-        <f>SUM(R11:V11,Y11:AA11,AE11)</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="AK11"/>
       <c r="AL11" s="2">
-        <f>AJ11-F11</f>
+        <f t="shared" si="1"/>
         <v>-7.0437956204379546</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
@@ -2186,7 +2195,7 @@
         <v>705000</v>
       </c>
       <c r="F12" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>51.459854014598541</v>
       </c>
       <c r="H12" s="4">
@@ -2259,18 +2268,18 @@
       </c>
       <c r="AH12" s="2"/>
       <c r="AJ12" s="2">
-        <f>SUM(R12:V12,Y12:AA12,AE12)</f>
+        <f t="shared" si="0"/>
         <v>63.1</v>
       </c>
       <c r="AK12"/>
       <c r="AL12" s="2">
-        <f>AJ12-F12</f>
+        <f t="shared" si="1"/>
         <v>11.64014598540146</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
@@ -2284,7 +2293,7 @@
         <v>697000</v>
       </c>
       <c r="F13" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>50.875912408759127</v>
       </c>
       <c r="H13" s="4">
@@ -2357,18 +2366,18 @@
       </c>
       <c r="AH13" s="2"/>
       <c r="AJ13" s="2">
-        <f>SUM(R13:V13,Y13:AA13,AE13)</f>
+        <f t="shared" si="0"/>
         <v>58.3</v>
       </c>
       <c r="AK13"/>
       <c r="AL13" s="2">
-        <f>AJ13-F13</f>
+        <f t="shared" si="1"/>
         <v>7.4240875912408697</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
@@ -2381,7 +2390,7 @@
         <v>693000</v>
       </c>
       <c r="F14" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>50.583941605839414</v>
       </c>
       <c r="H14" s="4">
@@ -2435,18 +2444,18 @@
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
       <c r="AJ14" s="2">
-        <f>SUM(R14:V14,Y14:AA14,AE14)</f>
+        <f t="shared" si="0"/>
         <v>73.900000000000006</v>
       </c>
       <c r="AK14"/>
       <c r="AL14" s="2">
-        <f>AJ14-F14</f>
+        <f t="shared" si="1"/>
         <v>23.316058394160592</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
@@ -2459,7 +2468,7 @@
         <v>731000</v>
       </c>
       <c r="F15" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>53.357664233576642</v>
       </c>
       <c r="H15" s="4">
@@ -2513,18 +2522,18 @@
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
       <c r="AJ15" s="2">
-        <f>SUM(R15:V15,Y15:AA15,AE15)</f>
+        <f t="shared" si="0"/>
         <v>57.9</v>
       </c>
       <c r="AK15"/>
       <c r="AL15" s="2">
-        <f>AJ15-F15</f>
+        <f t="shared" si="1"/>
         <v>4.5423357664233563</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
@@ -2537,7 +2546,7 @@
         <v>749000</v>
       </c>
       <c r="F16" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>54.67153284671533</v>
       </c>
       <c r="H16" s="4">
@@ -2591,18 +2600,18 @@
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
       <c r="AJ16" s="2">
-        <f>SUM(R16:V16,Y16:AA16,AE16)</f>
+        <f t="shared" si="0"/>
         <v>42.2</v>
       </c>
       <c r="AK16"/>
       <c r="AL16" s="2">
-        <f>AJ16-F16</f>
+        <f t="shared" si="1"/>
         <v>-12.471532846715327</v>
       </c>
     </row>
     <row r="17" spans="1:38" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
@@ -2615,7 +2624,7 @@
         <v>740000</v>
       </c>
       <c r="F17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>54.014598540145982</v>
       </c>
       <c r="H17" s="4">
@@ -2669,18 +2678,18 @@
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
       <c r="AJ17" s="2">
-        <f>SUM(R17:V17,Y17:AA17,AE17)</f>
+        <f t="shared" si="0"/>
         <v>72.099999999999994</v>
       </c>
       <c r="AK17"/>
       <c r="AL17" s="2">
-        <f>AJ17-F17</f>
+        <f t="shared" si="1"/>
         <v>18.085401459854012</v>
       </c>
     </row>
     <row r="18" spans="1:38" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
@@ -2693,7 +2702,7 @@
         <v>744000</v>
       </c>
       <c r="F18" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>54.306569343065696</v>
       </c>
       <c r="H18" s="4">
@@ -2747,18 +2756,18 @@
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
       <c r="AJ18" s="2">
-        <f>SUM(R18:V18,Y18:AA18,AE18)</f>
+        <f t="shared" si="0"/>
         <v>67.7</v>
       </c>
       <c r="AK18"/>
       <c r="AL18" s="2">
-        <f>AJ18-F18</f>
+        <f t="shared" si="1"/>
         <v>13.393430656934306</v>
       </c>
     </row>
     <row r="19" spans="1:38" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
@@ -2771,7 +2780,7 @@
         <v>745000</v>
       </c>
       <c r="F19" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>54.379562043795623</v>
       </c>
       <c r="H19" s="4">
@@ -2825,18 +2834,18 @@
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
       <c r="AJ19" s="2">
-        <f>SUM(R19:V19,Y19:AA19,AE19)</f>
+        <f t="shared" si="0"/>
         <v>82.4</v>
       </c>
       <c r="AK19"/>
       <c r="AL19" s="2">
-        <f>AJ19-F19</f>
+        <f t="shared" si="1"/>
         <v>28.020437956204383</v>
       </c>
     </row>
     <row r="20" spans="1:38" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
@@ -2849,7 +2858,7 @@
         <v>761000</v>
       </c>
       <c r="F20" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>55.54744525547445</v>
       </c>
       <c r="H20" s="4">
@@ -2903,18 +2912,18 @@
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
       <c r="AJ20" s="2">
-        <f>SUM(R20:V20,Y20:AA20,AE20)</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="AK20"/>
       <c r="AL20" s="2">
-        <f>AJ20-F20</f>
+        <f t="shared" si="1"/>
         <v>7.4525547445255498</v>
       </c>
     </row>
     <row r="21" spans="1:38" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
@@ -2927,7 +2936,7 @@
         <v>771000</v>
       </c>
       <c r="F21" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>56.277372262773724</v>
       </c>
       <c r="H21" s="4">
@@ -2981,18 +2990,18 @@
       <c r="AG21" s="2"/>
       <c r="AH21" s="2"/>
       <c r="AJ21" s="2">
-        <f>SUM(R21:V21,Y21:AA21,AE21)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="AK21"/>
       <c r="AL21" s="2">
-        <f>AJ21-F21</f>
+        <f t="shared" si="1"/>
         <v>3.7226277372262757</v>
       </c>
     </row>
     <row r="22" spans="1:38" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
@@ -3005,7 +3014,7 @@
         <v>780000</v>
       </c>
       <c r="F22" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>56.934306569343065</v>
       </c>
       <c r="H22" s="4">
@@ -3059,18 +3068,18 @@
       <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
       <c r="AJ22" s="2">
-        <f>SUM(R22:V22,Y22:AA22,AE22)</f>
+        <f t="shared" si="0"/>
         <v>62.8</v>
       </c>
       <c r="AK22"/>
       <c r="AL22" s="2">
-        <f>AJ22-F22</f>
+        <f t="shared" si="1"/>
         <v>5.8656934306569326</v>
       </c>
     </row>
     <row r="23" spans="1:38" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="B23" s="13" t="s">
@@ -3083,7 +3092,7 @@
         <v>779000</v>
       </c>
       <c r="F23" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>56.861313868613138</v>
       </c>
       <c r="H23" s="4">
@@ -3136,12 +3145,12 @@
       </c>
       <c r="AI23" s="2"/>
       <c r="AJ23" s="2">
-        <f>SUM(R23:V23,Y23:AA23,AE23)</f>
+        <f t="shared" si="0"/>
         <v>37.299999999999997</v>
       </c>
       <c r="AK23"/>
       <c r="AL23" s="2">
-        <f>AJ23-F23</f>
+        <f t="shared" si="1"/>
         <v>-19.561313868613141</v>
       </c>
     </row>
